--- a/raw_data/20200818_saline/20200818_Sensor2_Test_83.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_83.xlsx
@@ -1,688 +1,1104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235448D8-47C1-4D5F-B2E0-951180A498E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>74174.466640</v>
+        <v>74174.466639999999</v>
       </c>
       <c r="B2" s="1">
-        <v>20.604019</v>
+        <v>20.604019000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1247.250000</v>
+        <v>1247.25</v>
       </c>
       <c r="D2" s="1">
-        <v>-301.802000</v>
+        <v>-301.80200000000002</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>74185.184164</v>
+        <v>74185.184164000006</v>
       </c>
       <c r="G2" s="1">
-        <v>20.606996</v>
+        <v>20.606995999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1272.570000</v>
+        <v>1272.57</v>
       </c>
       <c r="I2" s="1">
-        <v>-261.817000</v>
+        <v>-261.81700000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>74195.680532</v>
+        <v>74195.680531999998</v>
       </c>
       <c r="L2" s="1">
         <v>20.609911</v>
       </c>
       <c r="M2" s="1">
-        <v>1308.560000</v>
+        <v>1308.56</v>
       </c>
       <c r="N2" s="1">
-        <v>-202.948000</v>
+        <v>-202.94800000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>74206.264166</v>
+        <v>74206.264165999994</v>
       </c>
       <c r="Q2" s="1">
-        <v>20.612851</v>
+        <v>20.612850999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1321.000000</v>
+        <v>1321</v>
       </c>
       <c r="S2" s="1">
-        <v>-185.327000</v>
+        <v>-185.327</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>74216.555626</v>
+        <v>74216.555626000001</v>
       </c>
       <c r="V2" s="1">
-        <v>20.615710</v>
+        <v>20.61571</v>
       </c>
       <c r="W2" s="1">
-        <v>1334.800000</v>
+        <v>1334.8</v>
       </c>
       <c r="X2" s="1">
-        <v>-172.466000</v>
+        <v>-172.46600000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>74227.014763</v>
+        <v>74227.014762999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>20.618615</v>
+        <v>20.618614999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>1353.100000</v>
+        <v>1353.1</v>
       </c>
       <c r="AC2" s="1">
-        <v>-170.491000</v>
+        <v>-170.49100000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>74237.286909</v>
+        <v>74237.286909000002</v>
       </c>
       <c r="AF2" s="1">
-        <v>20.621469</v>
+        <v>20.621469000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1366.580000</v>
+        <v>1366.58</v>
       </c>
       <c r="AH2" s="1">
-        <v>-180.328000</v>
+        <v>-180.328</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>74247.388463</v>
+        <v>74247.388462999996</v>
       </c>
       <c r="AK2" s="1">
-        <v>20.624275</v>
+        <v>20.624275000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1388.090000</v>
+        <v>1388.09</v>
       </c>
       <c r="AM2" s="1">
-        <v>-210.006000</v>
+        <v>-210.006</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>74257.625363</v>
+        <v>74257.625362999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>20.627118</v>
+        <v>20.627117999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1410.500000</v>
+        <v>1410.5</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.428000</v>
+        <v>-253.428</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>74269.054212</v>
+        <v>74269.054212000003</v>
       </c>
       <c r="AU2" s="1">
-        <v>20.630293</v>
+        <v>20.630293000000002</v>
       </c>
       <c r="AV2" s="1">
-        <v>1435.780000</v>
+        <v>1435.78</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.694000</v>
+        <v>-312.69400000000002</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>74280.123396</v>
+        <v>74280.123395999995</v>
       </c>
       <c r="AZ2" s="1">
-        <v>20.633368</v>
+        <v>20.633368000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1455.550000</v>
+        <v>1455.55</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.235000</v>
+        <v>-364.23500000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>74291.059925</v>
+        <v>74291.059924999994</v>
       </c>
       <c r="BE2" s="1">
-        <v>20.636406</v>
+        <v>20.636406000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1542.430000</v>
+        <v>1542.43</v>
       </c>
       <c r="BG2" s="1">
-        <v>-609.326000</v>
+        <v>-609.32600000000002</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>74302.114520</v>
+        <v>74302.114520000003</v>
       </c>
       <c r="BJ2" s="1">
-        <v>20.639476</v>
+        <v>20.639475999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1698.860000</v>
+        <v>1698.86</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1047.690000</v>
+        <v>-1047.69</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>74313.664360</v>
+        <v>74313.664359999995</v>
       </c>
       <c r="BO2" s="1">
         <v>20.642685</v>
       </c>
       <c r="BP2" s="1">
-        <v>1996.050000</v>
+        <v>1996.05</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1804.180000</v>
+        <v>-1804.18</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>74325.982504</v>
@@ -691,634 +1107,634 @@
         <v>20.646106</v>
       </c>
       <c r="BU2" s="1">
-        <v>2382.630000</v>
+        <v>2382.63</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2673.670000</v>
+        <v>-2673.67</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>74337.521432</v>
+        <v>74337.521431999994</v>
       </c>
       <c r="BY2" s="1">
-        <v>20.649312</v>
+        <v>20.649311999999998</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2868.600000</v>
+        <v>2868.6</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3618.360000</v>
+        <v>-3618.36</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>74348.566346</v>
+        <v>74348.566346000007</v>
       </c>
       <c r="CD2" s="1">
-        <v>20.652380</v>
+        <v>20.652380000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>4282.680000</v>
+        <v>4282.68</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5886.340000</v>
+        <v>-5886.34</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>74175.192255</v>
+        <v>74175.192255000002</v>
       </c>
       <c r="B3" s="1">
-        <v>20.604220</v>
+        <v>20.604220000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>1246.960000</v>
+        <v>1246.96</v>
       </c>
       <c r="D3" s="1">
-        <v>-301.983000</v>
+        <v>-301.983</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>74185.568065</v>
+        <v>74185.568064999999</v>
       </c>
       <c r="G3" s="1">
-        <v>20.607102</v>
+        <v>20.607102000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1272.030000</v>
+        <v>1272.03</v>
       </c>
       <c r="I3" s="1">
-        <v>-262.443000</v>
+        <v>-262.44299999999998</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>74196.055475</v>
+        <v>74196.055475000001</v>
       </c>
       <c r="L3" s="1">
-        <v>20.610015</v>
+        <v>20.610015000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1308.530000</v>
+        <v>1308.53</v>
       </c>
       <c r="N3" s="1">
-        <v>-202.648000</v>
+        <v>-202.648</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>74206.615302</v>
+        <v>74206.615302000006</v>
       </c>
       <c r="Q3" s="1">
         <v>20.612949</v>
       </c>
       <c r="R3" s="1">
-        <v>1321.020000</v>
+        <v>1321.02</v>
       </c>
       <c r="S3" s="1">
-        <v>-185.435000</v>
+        <v>-185.435</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>74216.895882</v>
+        <v>74216.895881999997</v>
       </c>
       <c r="V3" s="1">
-        <v>20.615804</v>
+        <v>20.615804000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1334.930000</v>
+        <v>1334.93</v>
       </c>
       <c r="X3" s="1">
-        <v>-172.350000</v>
+        <v>-172.35</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>74227.397707</v>
+        <v>74227.397706999996</v>
       </c>
       <c r="AA3" s="1">
-        <v>20.618722</v>
+        <v>20.618722000000002</v>
       </c>
       <c r="AB3" s="1">
-        <v>1353.130000</v>
+        <v>1353.13</v>
       </c>
       <c r="AC3" s="1">
-        <v>-170.474000</v>
+        <v>-170.47399999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>74237.724380</v>
+        <v>74237.72438</v>
       </c>
       <c r="AF3" s="1">
-        <v>20.621590</v>
+        <v>20.621590000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1366.620000</v>
+        <v>1366.62</v>
       </c>
       <c r="AH3" s="1">
-        <v>-180.321000</v>
+        <v>-180.321</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>74247.821439</v>
+        <v>74247.821439000007</v>
       </c>
       <c r="AK3" s="1">
         <v>20.624395</v>
       </c>
       <c r="AL3" s="1">
-        <v>1388.110000</v>
+        <v>1388.11</v>
       </c>
       <c r="AM3" s="1">
-        <v>-210.009000</v>
+        <v>-210.00899999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>74258.053905</v>
+        <v>74258.053904999993</v>
       </c>
       <c r="AP3" s="1">
-        <v>20.627237</v>
+        <v>20.627237000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1410.490000</v>
+        <v>1410.49</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.392000</v>
+        <v>-253.392</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>74269.420722</v>
+        <v>74269.420721999995</v>
       </c>
       <c r="AU3" s="1">
         <v>20.630395</v>
       </c>
       <c r="AV3" s="1">
-        <v>1435.750000</v>
+        <v>1435.75</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.751000</v>
+        <v>-312.75099999999998</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>74280.484484</v>
+        <v>74280.484484000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>20.633468</v>
+        <v>20.633468000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1455.550000</v>
+        <v>1455.55</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.193000</v>
+        <v>-364.19299999999998</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>74291.422758</v>
+        <v>74291.422758000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>20.636506</v>
+        <v>20.636506000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1542.490000</v>
+        <v>1542.49</v>
       </c>
       <c r="BG3" s="1">
-        <v>-609.308000</v>
+        <v>-609.30799999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>74302.890262</v>
+        <v>74302.890262000001</v>
       </c>
       <c r="BJ3" s="1">
         <v>20.639692</v>
       </c>
       <c r="BK3" s="1">
-        <v>1698.880000</v>
+        <v>1698.88</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1047.700000</v>
+        <v>-1047.7</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>74314.492679</v>
+        <v>74314.492679000003</v>
       </c>
       <c r="BO3" s="1">
-        <v>20.642915</v>
+        <v>20.642914999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1995.880000</v>
+        <v>1995.88</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1804.160000</v>
+        <v>-1804.16</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>74326.461639</v>
+        <v>74326.461639000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>20.646239</v>
+        <v>20.646239000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>2382.840000</v>
+        <v>2382.84</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2674.130000</v>
+        <v>-2674.13</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>74337.985194</v>
+        <v>74337.985193999993</v>
       </c>
       <c r="BY3" s="1">
-        <v>20.649440</v>
+        <v>20.649439999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2867.870000</v>
+        <v>2867.87</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3618.040000</v>
+        <v>-3618.04</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>74349.132777</v>
+        <v>74349.132777000006</v>
       </c>
       <c r="CD3" s="1">
-        <v>20.652537</v>
+        <v>20.652536999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>4283.940000</v>
+        <v>4283.9399999999996</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5888.620000</v>
+        <v>-5888.62</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>74175.532511</v>
+        <v>74175.532510999998</v>
       </c>
       <c r="B4" s="1">
         <v>20.604315</v>
       </c>
       <c r="C4" s="1">
-        <v>1247.160000</v>
+        <v>1247.1600000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-301.695000</v>
+        <v>-301.69499999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>74185.914769</v>
+        <v>74185.914768999995</v>
       </c>
       <c r="G4" s="1">
-        <v>20.607199</v>
+        <v>20.607199000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1272.010000</v>
+        <v>1272.01</v>
       </c>
       <c r="I4" s="1">
-        <v>-261.797000</v>
+        <v>-261.79700000000003</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>74196.402215</v>
+        <v>74196.402214999995</v>
       </c>
       <c r="L4" s="1">
-        <v>20.610112</v>
+        <v>20.610112000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1308.510000</v>
+        <v>1308.51</v>
       </c>
       <c r="N4" s="1">
-        <v>-202.865000</v>
+        <v>-202.86500000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>74206.965477</v>
+        <v>74206.965477000005</v>
       </c>
       <c r="Q4" s="1">
-        <v>20.613046</v>
+        <v>20.613046000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1320.980000</v>
+        <v>1320.98</v>
       </c>
       <c r="S4" s="1">
-        <v>-185.512000</v>
+        <v>-185.512</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>74217.273336</v>
+        <v>74217.273335999998</v>
       </c>
       <c r="V4" s="1">
-        <v>20.615909</v>
+        <v>20.615908999999998</v>
       </c>
       <c r="W4" s="1">
-        <v>1334.990000</v>
+        <v>1334.99</v>
       </c>
       <c r="X4" s="1">
-        <v>-172.471000</v>
+        <v>-172.471</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>74227.829194</v>
+        <v>74227.829194000005</v>
       </c>
       <c r="AA4" s="1">
         <v>20.618841</v>
       </c>
       <c r="AB4" s="1">
-        <v>1353.040000</v>
+        <v>1353.04</v>
       </c>
       <c r="AC4" s="1">
-        <v>-170.511000</v>
+        <v>-170.511</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>74238.012092</v>
+        <v>74238.012092000004</v>
       </c>
       <c r="AF4" s="1">
-        <v>20.621670</v>
+        <v>20.621670000000002</v>
       </c>
       <c r="AG4" s="1">
-        <v>1366.560000</v>
+        <v>1366.56</v>
       </c>
       <c r="AH4" s="1">
-        <v>-180.286000</v>
+        <v>-180.286</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>74248.155743</v>
+        <v>74248.155742999996</v>
       </c>
       <c r="AK4" s="1">
-        <v>20.624488</v>
+        <v>20.624487999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1388.100000</v>
+        <v>1388.1</v>
       </c>
       <c r="AM4" s="1">
-        <v>-210.003000</v>
+        <v>-210.00299999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>74258.414497</v>
+        <v>74258.414497000005</v>
       </c>
       <c r="AP4" s="1">
-        <v>20.627337</v>
+        <v>20.627337000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1410.490000</v>
+        <v>1410.49</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.422000</v>
+        <v>-253.422</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>74269.782306</v>
+        <v>74269.782305999994</v>
       </c>
       <c r="AU4" s="1">
         <v>20.630495</v>
       </c>
       <c r="AV4" s="1">
-        <v>1435.770000</v>
+        <v>1435.77</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.717000</v>
+        <v>-312.71699999999998</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>74280.851027</v>
+        <v>74280.851026999997</v>
       </c>
       <c r="AZ4" s="1">
-        <v>20.633570</v>
+        <v>20.633569999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1455.550000</v>
+        <v>1455.55</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.212000</v>
+        <v>-364.21199999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>74292.145925</v>
+        <v>74292.145925000004</v>
       </c>
       <c r="BE4" s="1">
-        <v>20.636707</v>
+        <v>20.636707000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1542.420000</v>
+        <v>1542.42</v>
       </c>
       <c r="BG4" s="1">
-        <v>-609.353000</v>
+        <v>-609.35299999999995</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>74303.266230</v>
+        <v>74303.266229999994</v>
       </c>
       <c r="BJ4" s="1">
         <v>20.639796</v>
       </c>
       <c r="BK4" s="1">
-        <v>1698.830000</v>
+        <v>1698.83</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1047.650000</v>
+        <v>-1047.6500000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>74314.909846</v>
+        <v>74314.909845999995</v>
       </c>
       <c r="BO4" s="1">
-        <v>20.643031</v>
+        <v>20.643031000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1995.950000</v>
+        <v>1995.95</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1804.240000</v>
+        <v>-1804.24</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>74326.876327</v>
+        <v>74326.876327000005</v>
       </c>
       <c r="BT4" s="1">
         <v>20.646355</v>
       </c>
       <c r="BU4" s="1">
-        <v>2382.700000</v>
+        <v>2382.6999999999998</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2674.500000</v>
+        <v>-2674.5</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>74338.744071</v>
+        <v>74338.744070999994</v>
       </c>
       <c r="BY4" s="1">
-        <v>20.649651</v>
+        <v>20.649650999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2867.200000</v>
+        <v>2867.2</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3618.400000</v>
+        <v>-3618.4</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>74350.016152</v>
+        <v>74350.016151999997</v>
       </c>
       <c r="CD4" s="1">
-        <v>20.652782</v>
+        <v>20.652781999999998</v>
       </c>
       <c r="CE4" s="1">
-        <v>4277.210000</v>
+        <v>4277.21</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5873.400000</v>
+        <v>-5873.4</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>74175.874782</v>
+        <v>74175.874781999999</v>
       </c>
       <c r="B5" s="1">
-        <v>20.604410</v>
+        <v>20.604410000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1247.300000</v>
+        <v>1247.3</v>
       </c>
       <c r="D5" s="1">
-        <v>-301.618000</v>
+        <v>-301.61799999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>74186.258498</v>
+        <v>74186.258497999996</v>
       </c>
       <c r="G5" s="1">
         <v>20.607294</v>
       </c>
       <c r="H5" s="1">
-        <v>1272.250000</v>
+        <v>1272.25</v>
       </c>
       <c r="I5" s="1">
-        <v>-261.900000</v>
+        <v>-261.89999999999998</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>74196.747396</v>
+        <v>74196.747396000006</v>
       </c>
       <c r="L5" s="1">
         <v>20.610208</v>
       </c>
       <c r="M5" s="1">
-        <v>1308.550000</v>
+        <v>1308.55</v>
       </c>
       <c r="N5" s="1">
-        <v>-202.927000</v>
+        <v>-202.92699999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>74207.394021</v>
       </c>
       <c r="Q5" s="1">
-        <v>20.613165</v>
+        <v>20.613164999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1320.920000</v>
+        <v>1320.92</v>
       </c>
       <c r="S5" s="1">
-        <v>-185.529000</v>
+        <v>-185.529</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>74217.952358</v>
+        <v>74217.952357999995</v>
       </c>
       <c r="V5" s="1">
-        <v>20.616098</v>
+        <v>20.616098000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1334.880000</v>
+        <v>1334.88</v>
       </c>
       <c r="X5" s="1">
-        <v>-172.438000</v>
+        <v>-172.43799999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>74228.117369</v>
@@ -1327,966 +1743,966 @@
         <v>20.618921</v>
       </c>
       <c r="AB5" s="1">
-        <v>1353.160000</v>
+        <v>1353.16</v>
       </c>
       <c r="AC5" s="1">
-        <v>-170.493000</v>
+        <v>-170.49299999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>74238.351826</v>
+        <v>74238.351825999998</v>
       </c>
       <c r="AF5" s="1">
-        <v>20.621764</v>
+        <v>20.621763999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1366.620000</v>
+        <v>1366.62</v>
       </c>
       <c r="AH5" s="1">
-        <v>-180.245000</v>
+        <v>-180.245</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>74248.501454</v>
+        <v>74248.501453999997</v>
       </c>
       <c r="AK5" s="1">
-        <v>20.624584</v>
+        <v>20.624583999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1388.120000</v>
+        <v>1388.12</v>
       </c>
       <c r="AM5" s="1">
-        <v>-210.020000</v>
+        <v>-210.02</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>74258.774592</v>
+        <v>74258.774592000002</v>
       </c>
       <c r="AP5" s="1">
         <v>20.627437</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1410.490000</v>
+        <v>1410.49</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.410000</v>
+        <v>-253.41</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>74270.512417</v>
+        <v>74270.512417000005</v>
       </c>
       <c r="AU5" s="1">
-        <v>20.630698</v>
+        <v>20.630697999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1435.770000</v>
+        <v>1435.77</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.723000</v>
+        <v>-312.72300000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>74281.562787</v>
+        <v>74281.562787000003</v>
       </c>
       <c r="AZ5" s="1">
-        <v>20.633767</v>
+        <v>20.633766999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1455.590000</v>
+        <v>1455.59</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.195000</v>
+        <v>-364.19499999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>74292.533300</v>
+        <v>74292.533299999996</v>
       </c>
       <c r="BE5" s="1">
-        <v>20.636815</v>
+        <v>20.636814999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1542.450000</v>
+        <v>1542.45</v>
       </c>
       <c r="BG5" s="1">
-        <v>-609.327000</v>
+        <v>-609.327</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>74303.665509</v>
+        <v>74303.665508999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>20.639907</v>
+        <v>20.639907000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1698.850000</v>
+        <v>1698.85</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1047.680000</v>
+        <v>-1047.68</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>74315.306615</v>
+        <v>74315.306614999994</v>
       </c>
       <c r="BO5" s="1">
         <v>20.643141</v>
       </c>
       <c r="BP5" s="1">
-        <v>1995.930000</v>
+        <v>1995.93</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1804.160000</v>
+        <v>-1804.16</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>74327.614342</v>
+        <v>74327.614342000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>20.646560</v>
+        <v>20.646560000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>2383.040000</v>
+        <v>2383.04</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2674.600000</v>
+        <v>-2674.6</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>74338.866583</v>
+        <v>74338.866582999995</v>
       </c>
       <c r="BY5" s="1">
-        <v>20.649685</v>
+        <v>20.649685000000002</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2868.180000</v>
+        <v>2868.18</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3618.850000</v>
+        <v>-3618.85</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>74350.181320</v>
+        <v>74350.181320000003</v>
       </c>
       <c r="CD5" s="1">
         <v>20.652828</v>
       </c>
       <c r="CE5" s="1">
-        <v>4282.110000</v>
+        <v>4282.1099999999997</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5879.950000</v>
+        <v>-5879.95</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>74176.215502</v>
+        <v>74176.215502000006</v>
       </c>
       <c r="B6" s="1">
-        <v>20.604504</v>
+        <v>20.604503999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1247.370000</v>
+        <v>1247.3699999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-301.750000</v>
+        <v>-301.75</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>74186.686544</v>
+        <v>74186.686543999997</v>
       </c>
       <c r="G6" s="1">
-        <v>20.607413</v>
+        <v>20.607413000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1272.080000</v>
+        <v>1272.08</v>
       </c>
       <c r="I6" s="1">
-        <v>-262.867000</v>
+        <v>-262.86700000000002</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>74197.178449</v>
+        <v>74197.178448999999</v>
       </c>
       <c r="L6" s="1">
-        <v>20.610327</v>
+        <v>20.610327000000002</v>
       </c>
       <c r="M6" s="1">
-        <v>1308.310000</v>
+        <v>1308.31</v>
       </c>
       <c r="N6" s="1">
-        <v>-202.681000</v>
+        <v>-202.68100000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>74207.661860</v>
+        <v>74207.661859999993</v>
       </c>
       <c r="Q6" s="1">
         <v>20.613239</v>
       </c>
       <c r="R6" s="1">
-        <v>1320.880000</v>
+        <v>1320.88</v>
       </c>
       <c r="S6" s="1">
-        <v>-185.487000</v>
+        <v>-185.48699999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>74218.297575</v>
+        <v>74218.297575000004</v>
       </c>
       <c r="V6" s="1">
         <v>20.616194</v>
       </c>
       <c r="W6" s="1">
-        <v>1334.960000</v>
+        <v>1334.96</v>
       </c>
       <c r="X6" s="1">
-        <v>-172.328000</v>
+        <v>-172.328</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>74228.467545</v>
+        <v>74228.467545000007</v>
       </c>
       <c r="AA6" s="1">
-        <v>20.619019</v>
+        <v>20.619019000000002</v>
       </c>
       <c r="AB6" s="1">
-        <v>1353.100000</v>
+        <v>1353.1</v>
       </c>
       <c r="AC6" s="1">
-        <v>-170.595000</v>
+        <v>-170.595</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>74238.694059</v>
+        <v>74238.694059000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>20.621859</v>
+        <v>20.621859000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1366.610000</v>
+        <v>1366.61</v>
       </c>
       <c r="AH6" s="1">
-        <v>-180.270000</v>
+        <v>-180.27</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>74248.866511</v>
       </c>
       <c r="AK6" s="1">
-        <v>20.624685</v>
+        <v>20.624684999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1388.090000</v>
+        <v>1388.09</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.983000</v>
+        <v>-209.983</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>74259.498784</v>
+        <v>74259.498783999996</v>
       </c>
       <c r="AP6" s="1">
-        <v>20.627639</v>
+        <v>20.627638999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1410.500000</v>
+        <v>1410.5</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.413000</v>
+        <v>-253.41300000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>74270.879952</v>
+        <v>74270.879952000003</v>
       </c>
       <c r="AU6" s="1">
-        <v>20.630800</v>
+        <v>20.630800000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1435.780000</v>
+        <v>1435.78</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.726000</v>
+        <v>-312.726</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>74281.919939</v>
+        <v>74281.919938999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>20.633867</v>
+        <v>20.633866999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1455.570000</v>
+        <v>1455.57</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.202000</v>
+        <v>-364.202</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>74292.895877</v>
+        <v>74292.895877000003</v>
       </c>
       <c r="BE6" s="1">
-        <v>20.636916</v>
+        <v>20.636915999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1542.440000</v>
+        <v>1542.44</v>
       </c>
       <c r="BG6" s="1">
-        <v>-609.321000</v>
+        <v>-609.32100000000003</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>74304.363380</v>
+        <v>74304.363379999995</v>
       </c>
       <c r="BJ6" s="1">
-        <v>20.640101</v>
+        <v>20.640101000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1698.780000</v>
+        <v>1698.78</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1047.620000</v>
+        <v>-1047.6199999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>74316.040216</v>
+        <v>74316.040215999994</v>
       </c>
       <c r="BO6" s="1">
         <v>20.643345</v>
       </c>
       <c r="BP6" s="1">
-        <v>1995.850000</v>
+        <v>1995.85</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1804.190000</v>
+        <v>-1804.19</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>74327.733878</v>
+        <v>74327.733877999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>20.646593</v>
+        <v>20.646592999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>2382.690000</v>
+        <v>2382.69</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2674.890000</v>
+        <v>-2674.89</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>74339.289670</v>
+        <v>74339.289669999998</v>
       </c>
       <c r="BY6" s="1">
-        <v>20.649803</v>
+        <v>20.649802999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2867.240000</v>
+        <v>2867.24</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3618.630000</v>
+        <v>-3618.63</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>74350.708073</v>
+        <v>74350.708073000002</v>
       </c>
       <c r="CD6" s="1">
         <v>20.652974</v>
       </c>
       <c r="CE6" s="1">
-        <v>4281.580000</v>
+        <v>4281.58</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5891.480000</v>
+        <v>-5891.48</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>74176.657439</v>
+        <v>74176.657439000002</v>
       </c>
       <c r="B7" s="1">
-        <v>20.604627</v>
+        <v>20.604627000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1247.220000</v>
+        <v>1247.22</v>
       </c>
       <c r="D7" s="1">
-        <v>-301.776000</v>
+        <v>-301.77600000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>74186.950416</v>
+        <v>74186.950416000007</v>
       </c>
       <c r="G7" s="1">
-        <v>20.607486</v>
+        <v>20.607486000000002</v>
       </c>
       <c r="H7" s="1">
-        <v>1272.180000</v>
+        <v>1272.18</v>
       </c>
       <c r="I7" s="1">
-        <v>-262.593000</v>
+        <v>-262.59300000000002</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>74197.457170</v>
+        <v>74197.457169999994</v>
       </c>
       <c r="L7" s="1">
         <v>20.610405</v>
       </c>
       <c r="M7" s="1">
-        <v>1308.330000</v>
+        <v>1308.33</v>
       </c>
       <c r="N7" s="1">
-        <v>-202.780000</v>
+        <v>-202.78</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>74208.008564</v>
+        <v>74208.008564000003</v>
       </c>
       <c r="Q7" s="1">
         <v>20.613336</v>
       </c>
       <c r="R7" s="1">
-        <v>1320.900000</v>
+        <v>1320.9</v>
       </c>
       <c r="S7" s="1">
-        <v>-185.484000</v>
+        <v>-185.48400000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>74218.645778</v>
+        <v>74218.645778000006</v>
       </c>
       <c r="V7" s="1">
-        <v>20.616290</v>
+        <v>20.616289999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1334.950000</v>
+        <v>1334.95</v>
       </c>
       <c r="X7" s="1">
-        <v>-172.339000</v>
+        <v>-172.339</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>74228.814746</v>
+        <v>74228.814746000004</v>
       </c>
       <c r="AA7" s="1">
-        <v>20.619115</v>
+        <v>20.619115000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1353.070000</v>
+        <v>1353.07</v>
       </c>
       <c r="AC7" s="1">
-        <v>-170.497000</v>
+        <v>-170.49700000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>74239.383002</v>
+        <v>74239.383002000002</v>
       </c>
       <c r="AF7" s="1">
-        <v>20.622051</v>
+        <v>20.622050999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1366.590000</v>
+        <v>1366.59</v>
       </c>
       <c r="AH7" s="1">
-        <v>-180.335000</v>
+        <v>-180.33500000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>74249.549006</v>
+        <v>74249.549006000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>20.624875</v>
+        <v>20.624874999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1388.080000</v>
+        <v>1388.08</v>
       </c>
       <c r="AM7" s="1">
-        <v>-210.009000</v>
+        <v>-210.00899999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>74259.852897</v>
+        <v>74259.852897000004</v>
       </c>
       <c r="AP7" s="1">
         <v>20.627737</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1410.490000</v>
+        <v>1410.49</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.442000</v>
+        <v>-253.44200000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>74271.242034</v>
+        <v>74271.242033999995</v>
       </c>
       <c r="AU7" s="1">
-        <v>20.630901</v>
+        <v>20.630901000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1435.780000</v>
+        <v>1435.78</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.717000</v>
+        <v>-312.71699999999998</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>74282.282979</v>
+        <v>74282.282978999996</v>
       </c>
       <c r="AZ7" s="1">
-        <v>20.633967</v>
+        <v>20.633966999999998</v>
       </c>
       <c r="BA7" s="1">
-        <v>1455.550000</v>
+        <v>1455.55</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.197000</v>
+        <v>-364.197</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>74293.568451</v>
+        <v>74293.568450999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>20.637102</v>
+        <v>20.637101999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1542.430000</v>
+        <v>1542.43</v>
       </c>
       <c r="BG7" s="1">
-        <v>-609.318000</v>
+        <v>-609.31799999999998</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>74304.819203</v>
+        <v>74304.819203000006</v>
       </c>
       <c r="BJ7" s="1">
         <v>20.640228</v>
       </c>
       <c r="BK7" s="1">
-        <v>1698.900000</v>
+        <v>1698.9</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1047.700000</v>
+        <v>-1047.7</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>74316.546614</v>
+        <v>74316.546614000006</v>
       </c>
       <c r="BO7" s="1">
-        <v>20.643485</v>
+        <v>20.643484999999998</v>
       </c>
       <c r="BP7" s="1">
-        <v>1995.770000</v>
+        <v>1995.77</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1804.130000</v>
+        <v>-1804.13</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>74328.147541</v>
+        <v>74328.147540999998</v>
       </c>
       <c r="BT7" s="1">
         <v>20.646708</v>
       </c>
       <c r="BU7" s="1">
-        <v>2383.030000</v>
+        <v>2383.0300000000002</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2675.020000</v>
+        <v>-2675.02</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>74339.708295</v>
+        <v>74339.708295000004</v>
       </c>
       <c r="BY7" s="1">
-        <v>20.649919</v>
+        <v>20.649919000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2867.360000</v>
+        <v>2867.36</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3618.210000</v>
+        <v>-3618.21</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>74351.228903</v>
+        <v>74351.228902999996</v>
       </c>
       <c r="CD7" s="1">
         <v>20.653119</v>
       </c>
       <c r="CE7" s="1">
-        <v>4278.670000</v>
+        <v>4278.67</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5874.120000</v>
+        <v>-5874.12</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>74176.912878</v>
+        <v>74176.912878000003</v>
       </c>
       <c r="B8" s="1">
-        <v>20.604698</v>
+        <v>20.604697999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1247.460000</v>
+        <v>1247.46</v>
       </c>
       <c r="D8" s="1">
-        <v>-301.997000</v>
+        <v>-301.99700000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>74187.293647</v>
+        <v>74187.293646999999</v>
       </c>
       <c r="G8" s="1">
-        <v>20.607582</v>
+        <v>20.607582000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1272.360000</v>
+        <v>1272.3599999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-261.932000</v>
+        <v>-261.93200000000002</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>74197.805858</v>
+        <v>74197.805858000007</v>
       </c>
       <c r="L8" s="1">
         <v>20.610502</v>
       </c>
       <c r="M8" s="1">
-        <v>1308.340000</v>
+        <v>1308.3399999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-202.863000</v>
+        <v>-202.863</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>74208.358243</v>
+        <v>74208.358242999995</v>
       </c>
       <c r="Q8" s="1">
-        <v>20.613433</v>
+        <v>20.613433000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1321.020000</v>
+        <v>1321.02</v>
       </c>
       <c r="S8" s="1">
-        <v>-185.392000</v>
+        <v>-185.392</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>74219.330740</v>
+        <v>74219.330740000005</v>
       </c>
       <c r="V8" s="1">
         <v>20.616481</v>
       </c>
       <c r="W8" s="1">
-        <v>1335.090000</v>
+        <v>1335.09</v>
       </c>
       <c r="X8" s="1">
-        <v>-172.499000</v>
+        <v>-172.499</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>74229.513607</v>
+        <v>74229.513607000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>20.619309</v>
+        <v>20.619309000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1353.070000</v>
+        <v>1353.07</v>
       </c>
       <c r="AC8" s="1">
-        <v>-170.584000</v>
+        <v>-170.584</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>74239.737146</v>
+        <v>74239.737145999999</v>
       </c>
       <c r="AF8" s="1">
         <v>20.622149</v>
       </c>
       <c r="AG8" s="1">
-        <v>1366.550000</v>
+        <v>1366.55</v>
       </c>
       <c r="AH8" s="1">
-        <v>-180.277000</v>
+        <v>-180.27699999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>74249.895709</v>
+        <v>74249.895709000004</v>
       </c>
       <c r="AK8" s="1">
-        <v>20.624971</v>
+        <v>20.624970999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1388.130000</v>
+        <v>1388.13</v>
       </c>
       <c r="AM8" s="1">
-        <v>-210.027000</v>
+        <v>-210.02699999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>74260.218447</v>
+        <v>74260.218447000007</v>
       </c>
       <c r="AP8" s="1">
-        <v>20.627838</v>
+        <v>20.627838000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1410.470000</v>
+        <v>1410.47</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.392000</v>
+        <v>-253.392</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>74271.929031</v>
+        <v>74271.929031000007</v>
       </c>
       <c r="AU8" s="1">
-        <v>20.631091</v>
+        <v>20.631091000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1435.780000</v>
+        <v>1435.78</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.724000</v>
+        <v>-312.72399999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>74282.969440</v>
+        <v>74282.969440000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>20.634158</v>
+        <v>20.634157999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1455.590000</v>
+        <v>1455.59</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.196000</v>
+        <v>-364.19600000000003</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>74294.004963</v>
+        <v>74294.004962999999</v>
       </c>
       <c r="BE8" s="1">
         <v>20.637224</v>
       </c>
       <c r="BF8" s="1">
-        <v>1542.450000</v>
+        <v>1542.45</v>
       </c>
       <c r="BG8" s="1">
-        <v>-609.308000</v>
+        <v>-609.30799999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>74305.201155</v>
+        <v>74305.201155000002</v>
       </c>
       <c r="BJ8" s="1">
-        <v>20.640334</v>
+        <v>20.640333999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1698.730000</v>
+        <v>1698.73</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1047.650000</v>
+        <v>-1047.6500000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>74316.965732</v>
+        <v>74316.965731999997</v>
       </c>
       <c r="BO8" s="1">
-        <v>20.643602</v>
+        <v>20.643602000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1995.650000</v>
+        <v>1995.65</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1804.280000</v>
+        <v>-1804.28</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>74328.575094</v>
       </c>
       <c r="BT8" s="1">
-        <v>20.646826</v>
+        <v>20.646826000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>2383.110000</v>
+        <v>2383.11</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2675.090000</v>
+        <v>-2675.09</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>74340.158661</v>
+        <v>74340.158660999994</v>
       </c>
       <c r="BY8" s="1">
-        <v>20.650044</v>
+        <v>20.650044000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2867.030000</v>
+        <v>2867.03</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3618.530000</v>
+        <v>-3618.53</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>74351.745207</v>
       </c>
       <c r="CD8" s="1">
-        <v>20.653263</v>
+        <v>20.653262999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>4280.050000</v>
+        <v>4280.05</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5877.220000</v>
+        <v>-5877.22</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>74177.257138</v>
+        <v>74177.257138000001</v>
       </c>
       <c r="B9" s="1">
-        <v>20.604794</v>
+        <v>20.604793999999998</v>
       </c>
       <c r="C9" s="1">
-        <v>1247.410000</v>
+        <v>1247.4100000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-301.735000</v>
+        <v>-301.73500000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>74187.640388</v>
@@ -2295,450 +2711,450 @@
         <v>20.607678</v>
       </c>
       <c r="H9" s="1">
-        <v>1272.280000</v>
+        <v>1272.28</v>
       </c>
       <c r="I9" s="1">
-        <v>-262.957000</v>
+        <v>-262.95699999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>74198.152065</v>
+        <v>74198.152065000002</v>
       </c>
       <c r="L9" s="1">
         <v>20.610598</v>
       </c>
       <c r="M9" s="1">
-        <v>1308.690000</v>
+        <v>1308.69</v>
       </c>
       <c r="N9" s="1">
-        <v>-202.744000</v>
+        <v>-202.744</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>74209.055156</v>
+        <v>74209.055156000002</v>
       </c>
       <c r="Q9" s="1">
         <v>20.613626</v>
       </c>
       <c r="R9" s="1">
-        <v>1321.100000</v>
+        <v>1321.1</v>
       </c>
       <c r="S9" s="1">
-        <v>-185.499000</v>
+        <v>-185.499</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>74219.676948</v>
+        <v>74219.676947999993</v>
       </c>
       <c r="V9" s="1">
-        <v>20.616577</v>
+        <v>20.616576999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1334.870000</v>
+        <v>1334.87</v>
       </c>
       <c r="X9" s="1">
-        <v>-172.387000</v>
+        <v>-172.387</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>74229.860311</v>
+        <v>74229.860310999997</v>
       </c>
       <c r="AA9" s="1">
-        <v>20.619406</v>
+        <v>20.619406000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1352.990000</v>
+        <v>1352.99</v>
       </c>
       <c r="AC9" s="1">
-        <v>-170.563000</v>
+        <v>-170.56299999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>74240.081867</v>
+        <v>74240.081867000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>20.622245</v>
+        <v>20.622244999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>1366.600000</v>
+        <v>1366.6</v>
       </c>
       <c r="AH9" s="1">
-        <v>-180.270000</v>
+        <v>-180.27</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>74250.248860</v>
+        <v>74250.248860000007</v>
       </c>
       <c r="AK9" s="1">
         <v>20.625069</v>
       </c>
       <c r="AL9" s="1">
-        <v>1388.070000</v>
+        <v>1388.07</v>
       </c>
       <c r="AM9" s="1">
-        <v>-210.023000</v>
+        <v>-210.023</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>74260.884574</v>
+        <v>74260.884573999996</v>
       </c>
       <c r="AP9" s="1">
-        <v>20.628023</v>
+        <v>20.628022999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1410.520000</v>
+        <v>1410.52</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.411000</v>
+        <v>-253.411</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>74272.336206</v>
+        <v>74272.336206000007</v>
       </c>
       <c r="AU9" s="1">
-        <v>20.631205</v>
+        <v>20.631205000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1435.750000</v>
+        <v>1435.75</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.694000</v>
+        <v>-312.69400000000002</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>74283.383104</v>
+        <v>74283.383103999993</v>
       </c>
       <c r="AZ9" s="1">
         <v>20.634273</v>
       </c>
       <c r="BA9" s="1">
-        <v>1455.570000</v>
+        <v>1455.57</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.232000</v>
+        <v>-364.23200000000003</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>74294.366513</v>
+        <v>74294.366513000001</v>
       </c>
       <c r="BE9" s="1">
         <v>20.637324</v>
       </c>
       <c r="BF9" s="1">
-        <v>1542.410000</v>
+        <v>1542.41</v>
       </c>
       <c r="BG9" s="1">
-        <v>-609.304000</v>
+        <v>-609.30399999999997</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>74305.570644</v>
+        <v>74305.570644000007</v>
       </c>
       <c r="BJ9" s="1">
-        <v>20.640436</v>
+        <v>20.640436000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1698.780000</v>
+        <v>1698.78</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1047.700000</v>
+        <v>-1047.7</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>74317.378931</v>
+        <v>74317.378930999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>20.643716</v>
+        <v>20.643716000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1995.870000</v>
+        <v>1995.87</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1804.160000</v>
+        <v>-1804.16</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>74329.001157</v>
+        <v>74329.001157000006</v>
       </c>
       <c r="BT9" s="1">
-        <v>20.646945</v>
+        <v>20.646944999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>2383.270000</v>
+        <v>2383.27</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2675.370000</v>
+        <v>-2675.37</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>74340.578310</v>
+        <v>74340.578309999997</v>
       </c>
       <c r="BY9" s="1">
-        <v>20.650161</v>
+        <v>20.650161000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2868.180000</v>
+        <v>2868.18</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3618.910000</v>
+        <v>-3618.91</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>74352.298249</v>
+        <v>74352.298248999999</v>
       </c>
       <c r="CD9" s="1">
         <v>20.653416</v>
       </c>
       <c r="CE9" s="1">
-        <v>4283.410000</v>
+        <v>4283.41</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5887.590000</v>
+        <v>-5887.59</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>74177.597852</v>
+        <v>74177.597852000006</v>
       </c>
       <c r="B10" s="1">
-        <v>20.604888</v>
+        <v>20.604887999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1247.200000</v>
+        <v>1247.2</v>
       </c>
       <c r="D10" s="1">
-        <v>-301.612000</v>
+        <v>-301.61200000000002</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>74188.335248</v>
+        <v>74188.335248000003</v>
       </c>
       <c r="G10" s="1">
-        <v>20.607871</v>
+        <v>20.607870999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1271.830000</v>
+        <v>1271.83</v>
       </c>
       <c r="I10" s="1">
-        <v>-261.901000</v>
+        <v>-261.90100000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>74198.845968</v>
+        <v>74198.845967999994</v>
       </c>
       <c r="L10" s="1">
-        <v>20.610791</v>
+        <v>20.610790999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1308.770000</v>
+        <v>1308.77</v>
       </c>
       <c r="N10" s="1">
-        <v>-203.013000</v>
+        <v>-203.01300000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>74209.403811</v>
+        <v>74209.403810999996</v>
       </c>
       <c r="Q10" s="1">
         <v>20.613723</v>
       </c>
       <c r="R10" s="1">
-        <v>1321.010000</v>
+        <v>1321.01</v>
       </c>
       <c r="S10" s="1">
-        <v>-185.483000</v>
+        <v>-185.483</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>74220.019189</v>
+        <v>74220.019188999999</v>
       </c>
       <c r="V10" s="1">
-        <v>20.616672</v>
+        <v>20.616672000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1335.010000</v>
+        <v>1335.01</v>
       </c>
       <c r="X10" s="1">
-        <v>-172.269000</v>
+        <v>-172.26900000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>74230.210486</v>
+        <v>74230.210485999996</v>
       </c>
       <c r="AA10" s="1">
-        <v>20.619503</v>
+        <v>20.619503000000002</v>
       </c>
       <c r="AB10" s="1">
-        <v>1352.880000</v>
+        <v>1352.88</v>
       </c>
       <c r="AC10" s="1">
-        <v>-170.552000</v>
+        <v>-170.55199999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>74240.751501</v>
+        <v>74240.751501000006</v>
       </c>
       <c r="AF10" s="1">
-        <v>20.622431</v>
+        <v>20.622430999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1366.550000</v>
+        <v>1366.55</v>
       </c>
       <c r="AH10" s="1">
-        <v>-180.281000</v>
+        <v>-180.28100000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>74250.690301</v>
+        <v>74250.690300999995</v>
       </c>
       <c r="AK10" s="1">
-        <v>20.625192</v>
+        <v>20.625191999999998</v>
       </c>
       <c r="AL10" s="1">
-        <v>1388.110000</v>
+        <v>1388.11</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.978000</v>
+        <v>-209.97800000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>74261.326014</v>
+        <v>74261.326014000006</v>
       </c>
       <c r="AP10" s="1">
-        <v>20.628146</v>
+        <v>20.628146000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1410.470000</v>
+        <v>1410.47</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.384000</v>
+        <v>-253.38399999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>74272.702254</v>
+        <v>74272.702254000003</v>
       </c>
       <c r="AU10" s="1">
-        <v>20.631306</v>
+        <v>20.631305999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1435.780000</v>
+        <v>1435.78</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.716000</v>
+        <v>-312.71600000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>74283.759567</v>
+        <v>74283.759567000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>20.634378</v>
+        <v>20.634378000000002</v>
       </c>
       <c r="BA10" s="1">
-        <v>1455.580000</v>
+        <v>1455.58</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.157000</v>
+        <v>-364.15699999999998</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>74294.728097</v>
+        <v>74294.728096999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>20.637424</v>
+        <v>20.637423999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1542.440000</v>
+        <v>1542.44</v>
       </c>
       <c r="BG10" s="1">
-        <v>-609.327000</v>
+        <v>-609.327</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>74306.002162</v>
+        <v>74306.002162000004</v>
       </c>
       <c r="BJ10" s="1">
         <v>20.640556</v>
       </c>
       <c r="BK10" s="1">
-        <v>1698.820000</v>
+        <v>1698.82</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1047.650000</v>
+        <v>-1047.6500000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>74317.782146</v>
+        <v>74317.782145999998</v>
       </c>
       <c r="BO10" s="1">
-        <v>20.643828</v>
+        <v>20.643827999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1995.590000</v>
+        <v>1995.59</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1804.170000</v>
+        <v>-1804.17</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>74329.403412</v>
@@ -2747,452 +3163,452 @@
         <v>20.647057</v>
       </c>
       <c r="BU10" s="1">
-        <v>2383.280000</v>
+        <v>2383.2800000000002</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2675.310000</v>
+        <v>-2675.31</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>74341.000372</v>
+        <v>74341.000371999995</v>
       </c>
       <c r="BY10" s="1">
         <v>20.650278</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2867.880000</v>
+        <v>2867.88</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3618.660000</v>
+        <v>-3618.66</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>74352.825034</v>
+        <v>74352.825033999994</v>
       </c>
       <c r="CD10" s="1">
-        <v>20.653563</v>
+        <v>20.653562999999998</v>
       </c>
       <c r="CE10" s="1">
-        <v>4275.290000</v>
+        <v>4275.29</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5871.790000</v>
+        <v>-5871.79</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>74178.278364</v>
+        <v>74178.278363999998</v>
       </c>
       <c r="B11" s="1">
-        <v>20.605077</v>
+        <v>20.605077000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>1247.300000</v>
+        <v>1247.3</v>
       </c>
       <c r="D11" s="1">
-        <v>-301.780000</v>
+        <v>-301.77999999999997</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>74188.686413</v>
+        <v>74188.686413000003</v>
       </c>
       <c r="G11" s="1">
         <v>20.607968</v>
       </c>
       <c r="H11" s="1">
-        <v>1272.150000</v>
+        <v>1272.1500000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-262.150000</v>
+        <v>-262.14999999999998</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>74199.195649</v>
+        <v>74199.195649000001</v>
       </c>
       <c r="L11" s="1">
-        <v>20.610888</v>
+        <v>20.610887999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1308.320000</v>
+        <v>1308.32</v>
       </c>
       <c r="N11" s="1">
-        <v>-202.700000</v>
+        <v>-202.7</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>74209.751507</v>
+        <v>74209.751506999994</v>
       </c>
       <c r="Q11" s="1">
-        <v>20.613820</v>
+        <v>20.61382</v>
       </c>
       <c r="R11" s="1">
-        <v>1320.950000</v>
+        <v>1320.95</v>
       </c>
       <c r="S11" s="1">
-        <v>-185.406000</v>
+        <v>-185.40600000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>74220.684323</v>
+        <v>74220.684322999994</v>
       </c>
       <c r="V11" s="1">
         <v>20.616857</v>
       </c>
       <c r="W11" s="1">
-        <v>1334.940000</v>
+        <v>1334.94</v>
       </c>
       <c r="X11" s="1">
-        <v>-172.580000</v>
+        <v>-172.58</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>74230.872677</v>
+        <v>74230.872677000007</v>
       </c>
       <c r="AA11" s="1">
-        <v>20.619687</v>
+        <v>20.619686999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1353.100000</v>
+        <v>1353.1</v>
       </c>
       <c r="AC11" s="1">
-        <v>-170.552000</v>
+        <v>-170.55199999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>74241.110072</v>
+        <v>74241.110071999996</v>
       </c>
       <c r="AF11" s="1">
-        <v>20.622531</v>
+        <v>20.622530999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1366.610000</v>
+        <v>1366.61</v>
       </c>
       <c r="AH11" s="1">
-        <v>-180.291000</v>
+        <v>-180.291</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>74250.959133</v>
+        <v>74250.959132999997</v>
       </c>
       <c r="AK11" s="1">
         <v>20.625266</v>
       </c>
       <c r="AL11" s="1">
-        <v>1388.080000</v>
+        <v>1388.08</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.996000</v>
+        <v>-209.99600000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>74261.688622</v>
+        <v>74261.688622000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>20.628247</v>
+        <v>20.628247000000002</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1410.480000</v>
+        <v>1410.48</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.414000</v>
+        <v>-253.41399999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>74273.067838</v>
+        <v>74273.067838000003</v>
       </c>
       <c r="AU11" s="1">
         <v>20.631408</v>
       </c>
       <c r="AV11" s="1">
-        <v>1435.760000</v>
+        <v>1435.76</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.711000</v>
+        <v>-312.71100000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>74284.211919</v>
+        <v>74284.211918999994</v>
       </c>
       <c r="AZ11" s="1">
-        <v>20.634503</v>
+        <v>20.634502999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1455.550000</v>
+        <v>1455.55</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.206000</v>
+        <v>-364.20600000000002</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>74295.154656</v>
+        <v>74295.154655999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>20.637543</v>
+        <v>20.637543000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1542.400000</v>
+        <v>1542.4</v>
       </c>
       <c r="BG11" s="1">
-        <v>-609.328000</v>
+        <v>-609.32799999999997</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>74306.348370</v>
+        <v>74306.348370000007</v>
       </c>
       <c r="BJ11" s="1">
-        <v>20.640652</v>
+        <v>20.640651999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1698.770000</v>
+        <v>1698.77</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1047.670000</v>
+        <v>-1047.67</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>74318.179938</v>
+        <v>74318.179938000001</v>
       </c>
       <c r="BO11" s="1">
         <v>20.643939</v>
       </c>
       <c r="BP11" s="1">
-        <v>1995.700000</v>
+        <v>1995.7</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1803.920000</v>
+        <v>-1803.92</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>74329.819555</v>
+        <v>74329.819554999995</v>
       </c>
       <c r="BT11" s="1">
-        <v>20.647172</v>
+        <v>20.647172000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>2383.610000</v>
+        <v>2383.61</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2675.690000</v>
+        <v>-2675.69</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>74341.444788</v>
+        <v>74341.444787999993</v>
       </c>
       <c r="BY11" s="1">
-        <v>20.650401</v>
+        <v>20.650400999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2866.990000</v>
+        <v>2866.99</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3618.750000</v>
+        <v>-3618.75</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>74353.345829</v>
+        <v>74353.345828999998</v>
       </c>
       <c r="CD11" s="1">
-        <v>20.653707</v>
+        <v>20.653707000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>4261.400000</v>
+        <v>4261.3999999999996</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5882.830000</v>
+        <v>-5882.83</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>74178.622587</v>
+        <v>74178.622587000005</v>
       </c>
       <c r="B12" s="1">
-        <v>20.605173</v>
+        <v>20.605173000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1247.040000</v>
+        <v>1247.04</v>
       </c>
       <c r="D12" s="1">
-        <v>-301.776000</v>
+        <v>-301.77600000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>74189.032158</v>
+        <v>74189.032158000002</v>
       </c>
       <c r="G12" s="1">
-        <v>20.608064</v>
+        <v>20.608063999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1272.050000</v>
+        <v>1272.05</v>
       </c>
       <c r="I12" s="1">
-        <v>-262.296000</v>
+        <v>-262.29599999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>74199.539871</v>
+        <v>74199.539871000001</v>
       </c>
       <c r="L12" s="1">
-        <v>20.610983</v>
+        <v>20.610983000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1308.470000</v>
+        <v>1308.47</v>
       </c>
       <c r="N12" s="1">
-        <v>-202.796000</v>
+        <v>-202.79599999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>74210.414163</v>
+        <v>74210.414162999994</v>
       </c>
       <c r="Q12" s="1">
-        <v>20.614004</v>
+        <v>20.614004000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1320.950000</v>
+        <v>1320.95</v>
       </c>
       <c r="S12" s="1">
-        <v>-185.366000</v>
+        <v>-185.36600000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>74221.051395</v>
+        <v>74221.051395000002</v>
       </c>
       <c r="V12" s="1">
-        <v>20.616959</v>
+        <v>20.616959000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1335.020000</v>
+        <v>1335.02</v>
       </c>
       <c r="X12" s="1">
-        <v>-172.451000</v>
+        <v>-172.45099999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>74231.257542</v>
+        <v>74231.257542000007</v>
       </c>
       <c r="AA12" s="1">
-        <v>20.619794</v>
+        <v>20.619793999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>1353.100000</v>
+        <v>1353.1</v>
       </c>
       <c r="AC12" s="1">
-        <v>-170.370000</v>
+        <v>-170.37</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>74241.454297</v>
+        <v>74241.454297000004</v>
       </c>
       <c r="AF12" s="1">
         <v>20.622626</v>
       </c>
       <c r="AG12" s="1">
-        <v>1366.590000</v>
+        <v>1366.59</v>
       </c>
       <c r="AH12" s="1">
-        <v>-180.318000</v>
+        <v>-180.31800000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>74251.305340</v>
+        <v>74251.305340000006</v>
       </c>
       <c r="AK12" s="1">
         <v>20.625363</v>
       </c>
       <c r="AL12" s="1">
-        <v>1388.080000</v>
+        <v>1388.08</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.973000</v>
+        <v>-209.97300000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>74262.046701</v>
+        <v>74262.046700999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>20.628346</v>
+        <v>20.628346000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1410.510000</v>
+        <v>1410.51</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.376000</v>
+        <v>-253.376</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>74273.502334</v>
+        <v>74273.502334000004</v>
       </c>
       <c r="AU12" s="1">
-        <v>20.631528</v>
+        <v>20.631527999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1435.790000</v>
+        <v>1435.79</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.728000</v>
+        <v>-312.72800000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>74284.477002</v>
@@ -3201,1692 +3617,1692 @@
         <v>20.634577</v>
       </c>
       <c r="BA12" s="1">
-        <v>1455.610000</v>
+        <v>1455.61</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.162000</v>
+        <v>-364.16199999999998</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>74295.452752</v>
+        <v>74295.452751999997</v>
       </c>
       <c r="BE12" s="1">
-        <v>20.637626</v>
+        <v>20.637626000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1542.390000</v>
+        <v>1542.39</v>
       </c>
       <c r="BG12" s="1">
-        <v>-609.307000</v>
+        <v>-609.30700000000002</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>74306.723843</v>
       </c>
       <c r="BJ12" s="1">
-        <v>20.640757</v>
+        <v>20.640757000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1698.820000</v>
+        <v>1698.82</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1047.590000</v>
+        <v>-1047.5899999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>74318.599091</v>
+        <v>74318.599090999996</v>
       </c>
       <c r="BO12" s="1">
-        <v>20.644055</v>
+        <v>20.644055000000002</v>
       </c>
       <c r="BP12" s="1">
-        <v>1995.870000</v>
+        <v>1995.87</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1804.070000</v>
+        <v>-1804.07</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>74330.233715</v>
+        <v>74330.233714999995</v>
       </c>
       <c r="BT12" s="1">
-        <v>20.647287</v>
+        <v>20.647286999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>2383.780000</v>
+        <v>2383.7800000000002</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2675.330000</v>
+        <v>-2675.33</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>74341.879779</v>
+        <v>74341.879778999995</v>
       </c>
       <c r="BY12" s="1">
-        <v>20.650522</v>
+        <v>20.650521999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2867.410000</v>
+        <v>2867.41</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3619.120000</v>
+        <v>-3619.12</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>74353.865108</v>
+        <v>74353.865107999998</v>
       </c>
       <c r="CD12" s="1">
         <v>20.653851</v>
       </c>
       <c r="CE12" s="1">
-        <v>4275.030000</v>
+        <v>4275.03</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5892.450000</v>
+        <v>-5892.45</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>74178.961850</v>
+        <v>74178.961850000007</v>
       </c>
       <c r="B13" s="1">
-        <v>20.605267</v>
+        <v>20.605267000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>1247.320000</v>
+        <v>1247.32</v>
       </c>
       <c r="D13" s="1">
-        <v>-301.703000</v>
+        <v>-301.70299999999997</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>74189.691836</v>
+        <v>74189.691835999998</v>
       </c>
       <c r="G13" s="1">
         <v>20.608248</v>
       </c>
       <c r="H13" s="1">
-        <v>1273.090000</v>
+        <v>1273.0899999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-261.783000</v>
+        <v>-261.78300000000002</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>74200.217406</v>
+        <v>74200.217405999996</v>
       </c>
       <c r="L13" s="1">
         <v>20.611172</v>
       </c>
       <c r="M13" s="1">
-        <v>1308.060000</v>
+        <v>1308.06</v>
       </c>
       <c r="N13" s="1">
-        <v>-202.762000</v>
+        <v>-202.762</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>74210.799552</v>
+        <v>74210.799551999997</v>
       </c>
       <c r="Q13" s="1">
-        <v>20.614111</v>
+        <v>20.614111000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1320.990000</v>
+        <v>1320.99</v>
       </c>
       <c r="S13" s="1">
-        <v>-185.349000</v>
+        <v>-185.34899999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>74221.396578</v>
       </c>
       <c r="V13" s="1">
-        <v>20.617055</v>
+        <v>20.617055000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1335.110000</v>
+        <v>1335.11</v>
       </c>
       <c r="X13" s="1">
-        <v>-172.292000</v>
+        <v>-172.292</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>74231.601269</v>
+        <v>74231.601269000006</v>
       </c>
       <c r="AA13" s="1">
-        <v>20.619889</v>
+        <v>20.619889000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1353.140000</v>
+        <v>1353.14</v>
       </c>
       <c r="AC13" s="1">
-        <v>-170.515000</v>
+        <v>-170.51499999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>74241.797031</v>
+        <v>74241.797030999995</v>
       </c>
       <c r="AF13" s="1">
-        <v>20.622721</v>
+        <v>20.622720999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1366.630000</v>
+        <v>1366.63</v>
       </c>
       <c r="AH13" s="1">
-        <v>-180.351000</v>
+        <v>-180.351</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>74251.742810</v>
+        <v>74251.742809999996</v>
       </c>
       <c r="AK13" s="1">
         <v>20.625484</v>
       </c>
       <c r="AL13" s="1">
-        <v>1388.090000</v>
+        <v>1388.09</v>
       </c>
       <c r="AM13" s="1">
-        <v>-210.004000</v>
+        <v>-210.00399999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>74262.470284</v>
+        <v>74262.470283999995</v>
       </c>
       <c r="AP13" s="1">
-        <v>20.628464</v>
+        <v>20.628464000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1410.500000</v>
+        <v>1410.5</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.399000</v>
+        <v>-253.399</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>74273.796957</v>
+        <v>74273.796956999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>20.631610</v>
+        <v>20.631609999999998</v>
       </c>
       <c r="AV13" s="1">
-        <v>1435.780000</v>
+        <v>1435.78</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.715000</v>
+        <v>-312.71499999999997</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>74284.835886</v>
+        <v>74284.835886000001</v>
       </c>
       <c r="AZ13" s="1">
         <v>20.634677</v>
       </c>
       <c r="BA13" s="1">
-        <v>1455.570000</v>
+        <v>1455.57</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.164000</v>
+        <v>-364.16399999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>74295.813839</v>
+        <v>74295.813838999995</v>
       </c>
       <c r="BE13" s="1">
-        <v>20.637726</v>
+        <v>20.637726000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1542.430000</v>
+        <v>1542.43</v>
       </c>
       <c r="BG13" s="1">
-        <v>-609.295000</v>
+        <v>-609.29499999999996</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>74307.099809</v>
+        <v>74307.099809000007</v>
       </c>
       <c r="BJ13" s="1">
-        <v>20.640861</v>
+        <v>20.640861000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1698.750000</v>
+        <v>1698.75</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1047.690000</v>
+        <v>-1047.69</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>74319.426881</v>
+        <v>74319.426881000007</v>
       </c>
       <c r="BO13" s="1">
         <v>20.644285</v>
       </c>
       <c r="BP13" s="1">
-        <v>1995.720000</v>
+        <v>1995.72</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1804.040000</v>
+        <v>-1804.04</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>74330.659282</v>
+        <v>74330.659281999993</v>
       </c>
       <c r="BT13" s="1">
-        <v>20.647405</v>
+        <v>20.647404999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>2383.900000</v>
+        <v>2383.9</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2675.940000</v>
+        <v>-2675.94</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>74342.300386</v>
+        <v>74342.300386000003</v>
       </c>
       <c r="BY13" s="1">
-        <v>20.650639</v>
+        <v>20.650639000000002</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2867.860000</v>
+        <v>2867.86</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3619.050000</v>
+        <v>-3619.05</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>74354.383962</v>
+        <v>74354.383962000007</v>
       </c>
       <c r="CD13" s="1">
-        <v>20.653996</v>
+        <v>20.653995999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>4269.720000</v>
+        <v>4269.72</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5894.920000</v>
+        <v>-5894.92</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>74179.627481</v>
+        <v>74179.627481000003</v>
       </c>
       <c r="B14" s="1">
         <v>20.605452</v>
       </c>
       <c r="C14" s="1">
-        <v>1247.170000</v>
+        <v>1247.17</v>
       </c>
       <c r="D14" s="1">
-        <v>-301.924000</v>
+        <v>-301.92399999999998</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>74190.068798</v>
+        <v>74190.068797999993</v>
       </c>
       <c r="G14" s="1">
         <v>20.608352</v>
       </c>
       <c r="H14" s="1">
-        <v>1271.650000</v>
+        <v>1271.6500000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-262.344000</v>
+        <v>-262.34399999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>74200.579028</v>
+        <v>74200.579027999993</v>
       </c>
       <c r="L14" s="1">
         <v>20.611272</v>
       </c>
       <c r="M14" s="1">
-        <v>1308.520000</v>
+        <v>1308.52</v>
       </c>
       <c r="N14" s="1">
-        <v>-202.775000</v>
+        <v>-202.77500000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>74211.148736</v>
+        <v>74211.148736000003</v>
       </c>
       <c r="Q14" s="1">
-        <v>20.614208</v>
+        <v>20.614208000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1320.980000</v>
+        <v>1320.98</v>
       </c>
       <c r="S14" s="1">
-        <v>-185.426000</v>
+        <v>-185.42599999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>74221.739811</v>
+        <v>74221.739811000007</v>
       </c>
       <c r="V14" s="1">
-        <v>20.617150</v>
+        <v>20.617149999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>1334.890000</v>
+        <v>1334.89</v>
       </c>
       <c r="X14" s="1">
-        <v>-172.430000</v>
+        <v>-172.43</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>74231.953927</v>
+        <v>74231.953926999995</v>
       </c>
       <c r="AA14" s="1">
-        <v>20.619987</v>
+        <v>20.619986999999998</v>
       </c>
       <c r="AB14" s="1">
-        <v>1353.150000</v>
+        <v>1353.15</v>
       </c>
       <c r="AC14" s="1">
-        <v>-170.282000</v>
+        <v>-170.28200000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>74242.227062</v>
+        <v>74242.227062000005</v>
       </c>
       <c r="AF14" s="1">
-        <v>20.622841</v>
+        <v>20.622841000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1366.640000</v>
+        <v>1366.64</v>
       </c>
       <c r="AH14" s="1">
-        <v>-180.339000</v>
+        <v>-180.339</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>74252.006683</v>
       </c>
       <c r="AK14" s="1">
-        <v>20.625557</v>
+        <v>20.625557000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>1388.080000</v>
+        <v>1388.08</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.994000</v>
+        <v>-209.994</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>74262.768379</v>
+        <v>74262.768379000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>20.628547</v>
+        <v>20.628547000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1410.490000</v>
+        <v>1410.49</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.394000</v>
+        <v>-253.39400000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>74274.158509</v>
+        <v>74274.158509000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>20.631711</v>
+        <v>20.631710999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1435.750000</v>
+        <v>1435.75</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.695000</v>
+        <v>-312.69499999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>74285.195022</v>
       </c>
       <c r="AZ14" s="1">
-        <v>20.634776</v>
+        <v>20.634775999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1455.560000</v>
+        <v>1455.56</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.179000</v>
+        <v>-364.17899999999997</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>74296.176031</v>
+        <v>74296.176030999995</v>
       </c>
       <c r="BE14" s="1">
-        <v>20.637827</v>
+        <v>20.637827000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1542.410000</v>
+        <v>1542.41</v>
       </c>
       <c r="BG14" s="1">
-        <v>-609.286000</v>
+        <v>-609.28599999999994</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>74307.868112</v>
+        <v>74307.868111999996</v>
       </c>
       <c r="BJ14" s="1">
         <v>20.641074</v>
       </c>
       <c r="BK14" s="1">
-        <v>1698.740000</v>
+        <v>1698.74</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1047.520000</v>
+        <v>-1047.52</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>74319.836576</v>
+        <v>74319.836576000002</v>
       </c>
       <c r="BO14" s="1">
         <v>20.644399</v>
       </c>
       <c r="BP14" s="1">
-        <v>1995.670000</v>
+        <v>1995.67</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1804.060000</v>
+        <v>-1804.06</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>74331.066529</v>
+        <v>74331.066529000003</v>
       </c>
       <c r="BT14" s="1">
-        <v>20.647518</v>
+        <v>20.647518000000002</v>
       </c>
       <c r="BU14" s="1">
-        <v>2384.230000</v>
+        <v>2384.23</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2675.780000</v>
+        <v>-2675.78</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>74342.723473</v>
+        <v>74342.723473000005</v>
       </c>
       <c r="BY14" s="1">
-        <v>20.650757</v>
+        <v>20.650756999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2867.330000</v>
+        <v>2867.33</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3618.680000</v>
+        <v>-3618.68</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>74355.242497</v>
+        <v>74355.242496999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>20.654234</v>
+        <v>20.654233999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>4261.560000</v>
+        <v>4261.5600000000004</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5884.080000</v>
+        <v>-5884.08</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>74179.989065</v>
+        <v>74179.989065000002</v>
       </c>
       <c r="B15" s="1">
         <v>20.605553</v>
       </c>
       <c r="C15" s="1">
-        <v>1247.100000</v>
+        <v>1247.0999999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-301.702000</v>
+        <v>-301.702</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>74190.412988</v>
+        <v>74190.412987999996</v>
       </c>
       <c r="G15" s="1">
-        <v>20.608448</v>
+        <v>20.608447999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1272.660000</v>
+        <v>1272.6600000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-262.139000</v>
+        <v>-262.13900000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>74200.926189</v>
+        <v>74200.926189000005</v>
       </c>
       <c r="L15" s="1">
-        <v>20.611368</v>
+        <v>20.611367999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1308.390000</v>
+        <v>1308.3900000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-203.109000</v>
+        <v>-203.10900000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>74211.498911</v>
+        <v>74211.498911000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>20.614305</v>
+        <v>20.614305000000002</v>
       </c>
       <c r="R15" s="1">
-        <v>1320.980000</v>
+        <v>1320.98</v>
       </c>
       <c r="S15" s="1">
-        <v>-185.416000</v>
+        <v>-185.416</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>74222.165392</v>
+        <v>74222.165391999995</v>
       </c>
       <c r="V15" s="1">
-        <v>20.617268</v>
+        <v>20.617267999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1334.960000</v>
+        <v>1334.96</v>
       </c>
       <c r="X15" s="1">
-        <v>-172.415000</v>
+        <v>-172.41499999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>74232.381753</v>
+        <v>74232.381752999994</v>
       </c>
       <c r="AA15" s="1">
         <v>20.620106</v>
       </c>
       <c r="AB15" s="1">
-        <v>1353.010000</v>
+        <v>1353.01</v>
       </c>
       <c r="AC15" s="1">
-        <v>-170.571000</v>
+        <v>-170.571</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>74242.480022</v>
+        <v>74242.480022000003</v>
       </c>
       <c r="AF15" s="1">
-        <v>20.622911</v>
+        <v>20.622910999999998</v>
       </c>
       <c r="AG15" s="1">
-        <v>1366.600000</v>
+        <v>1366.6</v>
       </c>
       <c r="AH15" s="1">
-        <v>-180.305000</v>
+        <v>-180.30500000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>74252.350411</v>
+        <v>74252.350411000007</v>
       </c>
       <c r="AK15" s="1">
         <v>20.625653</v>
       </c>
       <c r="AL15" s="1">
-        <v>1388.110000</v>
+        <v>1388.11</v>
       </c>
       <c r="AM15" s="1">
-        <v>-210.020000</v>
+        <v>-210.02</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>74263.125531</v>
+        <v>74263.125530999998</v>
       </c>
       <c r="AP15" s="1">
         <v>20.628646</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1410.510000</v>
+        <v>1410.51</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.386000</v>
+        <v>-253.386</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>74274.527914</v>
+        <v>74274.527914000006</v>
       </c>
       <c r="AU15" s="1">
-        <v>20.631813</v>
+        <v>20.631813000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1435.780000</v>
+        <v>1435.78</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.723000</v>
+        <v>-312.72300000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>74285.914189</v>
+        <v>74285.914189000003</v>
       </c>
       <c r="AZ15" s="1">
-        <v>20.634976</v>
+        <v>20.634976000000002</v>
       </c>
       <c r="BA15" s="1">
-        <v>1455.560000</v>
+        <v>1455.56</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.160000</v>
+        <v>-364.16</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>74296.898590</v>
+        <v>74296.898589999997</v>
       </c>
       <c r="BE15" s="1">
-        <v>20.638027</v>
+        <v>20.638027000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1542.450000</v>
+        <v>1542.45</v>
       </c>
       <c r="BG15" s="1">
-        <v>-609.292000</v>
+        <v>-609.29200000000003</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>74308.246100</v>
+        <v>74308.246100000004</v>
       </c>
       <c r="BJ15" s="1">
-        <v>20.641179</v>
+        <v>20.641179000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1698.800000</v>
+        <v>1698.8</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1047.630000</v>
+        <v>-1047.6300000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>74320.232879</v>
+        <v>74320.232879000003</v>
       </c>
       <c r="BO15" s="1">
-        <v>20.644509</v>
+        <v>20.644508999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1995.680000</v>
+        <v>1995.68</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1803.890000</v>
+        <v>-1803.89</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>74331.483138</v>
+        <v>74331.483137999996</v>
       </c>
       <c r="BT15" s="1">
         <v>20.647634</v>
       </c>
       <c r="BU15" s="1">
-        <v>2384.420000</v>
+        <v>2384.42</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2675.900000</v>
+        <v>-2675.9</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>74343.485330</v>
+        <v>74343.485329999996</v>
       </c>
       <c r="BY15" s="1">
-        <v>20.650968</v>
+        <v>20.650967999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2867.640000</v>
+        <v>2867.64</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3618.380000</v>
+        <v>-3618.38</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>74355.465201</v>
+        <v>74355.465200999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>20.654296</v>
+        <v>20.654295999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>4276.240000</v>
+        <v>4276.24</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5892.700000</v>
+        <v>-5892.7</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>74180.331306</v>
+        <v>74180.331305999993</v>
       </c>
       <c r="B16" s="1">
-        <v>20.605648</v>
+        <v>20.605647999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1247.350000</v>
+        <v>1247.3499999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-301.840000</v>
+        <v>-301.83999999999997</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>74190.759233</v>
+        <v>74190.759233000004</v>
       </c>
       <c r="G16" s="1">
-        <v>20.608544</v>
+        <v>20.608543999999998</v>
       </c>
       <c r="H16" s="1">
-        <v>1272.410000</v>
+        <v>1272.4100000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-262.286000</v>
+        <v>-262.286</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>74201.576479</v>
+        <v>74201.576478999996</v>
       </c>
       <c r="L16" s="1">
         <v>20.611549</v>
       </c>
       <c r="M16" s="1">
-        <v>1308.590000</v>
+        <v>1308.5899999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-203.145000</v>
+        <v>-203.14500000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>74211.924510</v>
+        <v>74211.924509999997</v>
       </c>
       <c r="Q16" s="1">
-        <v>20.614423</v>
+        <v>20.614422999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1320.930000</v>
+        <v>1320.93</v>
       </c>
       <c r="S16" s="1">
-        <v>-185.440000</v>
+        <v>-185.44</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>74222.455040</v>
+        <v>74222.455040000001</v>
       </c>
       <c r="V16" s="1">
-        <v>20.617349</v>
+        <v>20.617349000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1334.910000</v>
+        <v>1334.91</v>
       </c>
       <c r="X16" s="1">
-        <v>-172.458000</v>
+        <v>-172.458</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>74232.661715</v>
+        <v>74232.661714999995</v>
       </c>
       <c r="AA16" s="1">
-        <v>20.620184</v>
+        <v>20.620183999999998</v>
       </c>
       <c r="AB16" s="1">
-        <v>1353.080000</v>
+        <v>1353.08</v>
       </c>
       <c r="AC16" s="1">
-        <v>-170.546000</v>
+        <v>-170.54599999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>74242.833706</v>
+        <v>74242.833706000005</v>
       </c>
       <c r="AF16" s="1">
         <v>20.623009</v>
       </c>
       <c r="AG16" s="1">
-        <v>1366.570000</v>
+        <v>1366.57</v>
       </c>
       <c r="AH16" s="1">
-        <v>-180.295000</v>
+        <v>-180.29499999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>74252.703065</v>
+        <v>74252.703064999994</v>
       </c>
       <c r="AK16" s="1">
-        <v>20.625751</v>
+        <v>20.625751000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1388.050000</v>
+        <v>1388.05</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.954000</v>
+        <v>-209.95400000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>74263.485598</v>
+        <v>74263.485597999999</v>
       </c>
       <c r="AP16" s="1">
         <v>20.628746</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1410.500000</v>
+        <v>1410.5</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.394000</v>
+        <v>-253.39400000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>74275.254668</v>
+        <v>74275.254667999994</v>
       </c>
       <c r="AU16" s="1">
-        <v>20.632015</v>
+        <v>20.632014999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1435.770000</v>
+        <v>1435.77</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.725000</v>
+        <v>-312.72500000000002</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>74286.272796</v>
+        <v>74286.272796000005</v>
       </c>
       <c r="AZ16" s="1">
-        <v>20.635076</v>
+        <v>20.635076000000002</v>
       </c>
       <c r="BA16" s="1">
-        <v>1455.550000</v>
+        <v>1455.55</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.183000</v>
+        <v>-364.18299999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>74297.255710</v>
+        <v>74297.255709999998</v>
       </c>
       <c r="BE16" s="1">
-        <v>20.638127</v>
+        <v>20.638127000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1542.380000</v>
+        <v>1542.38</v>
       </c>
       <c r="BG16" s="1">
-        <v>-609.262000</v>
+        <v>-609.26199999999994</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>74308.621567</v>
+        <v>74308.621566999995</v>
       </c>
       <c r="BJ16" s="1">
-        <v>20.641284</v>
+        <v>20.641283999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1698.840000</v>
+        <v>1698.84</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1047.640000</v>
+        <v>-1047.6400000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>74320.975390</v>
+        <v>74320.975390000007</v>
       </c>
       <c r="BO16" s="1">
-        <v>20.644715</v>
+        <v>20.644715000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1995.720000</v>
+        <v>1995.72</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1804.040000</v>
+        <v>-1804.04</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>74332.223167</v>
+        <v>74332.223167000004</v>
       </c>
       <c r="BT16" s="1">
-        <v>20.647840</v>
+        <v>20.647839999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>2384.650000</v>
+        <v>2384.65</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2675.400000</v>
+        <v>-2675.4</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>74343.656978</v>
+        <v>74343.656977999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>20.651016</v>
+        <v>20.651015999999998</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2867.050000</v>
+        <v>2867.05</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3618.540000</v>
+        <v>-3618.54</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>74355.982528</v>
+        <v>74355.982527999993</v>
       </c>
       <c r="CD16" s="1">
-        <v>20.654440</v>
+        <v>20.654440000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>4266.780000</v>
+        <v>4266.78</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5893.280000</v>
+        <v>-5893.28</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>74180.675528</v>
+        <v>74180.675528000007</v>
       </c>
       <c r="B17" s="1">
         <v>20.605743</v>
       </c>
       <c r="C17" s="1">
-        <v>1247.520000</v>
+        <v>1247.52</v>
       </c>
       <c r="D17" s="1">
-        <v>-301.914000</v>
+        <v>-301.91399999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>74191.205099</v>
+        <v>74191.205098999999</v>
       </c>
       <c r="G17" s="1">
-        <v>20.608668</v>
+        <v>20.608668000000002</v>
       </c>
       <c r="H17" s="1">
-        <v>1271.710000</v>
+        <v>1271.71</v>
       </c>
       <c r="I17" s="1">
-        <v>-261.996000</v>
+        <v>-261.99599999999998</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>74201.965309</v>
+        <v>74201.965309000007</v>
       </c>
       <c r="L17" s="1">
-        <v>20.611657</v>
+        <v>20.611657000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1308.730000</v>
+        <v>1308.73</v>
       </c>
       <c r="N17" s="1">
-        <v>-202.777000</v>
+        <v>-202.77699999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>74212.200752</v>
+        <v>74212.200752000004</v>
       </c>
       <c r="Q17" s="1">
-        <v>20.614500</v>
+        <v>20.6145</v>
       </c>
       <c r="R17" s="1">
-        <v>1320.890000</v>
+        <v>1320.89</v>
       </c>
       <c r="S17" s="1">
-        <v>-185.476000</v>
+        <v>-185.476</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>74222.798768</v>
+        <v>74222.798767999993</v>
       </c>
       <c r="V17" s="1">
-        <v>20.617444</v>
+        <v>20.617443999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1334.910000</v>
+        <v>1334.91</v>
       </c>
       <c r="X17" s="1">
-        <v>-172.336000</v>
+        <v>-172.33600000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>74233.014371</v>
+        <v>74233.014370999997</v>
       </c>
       <c r="AA17" s="1">
         <v>20.620282</v>
       </c>
       <c r="AB17" s="1">
-        <v>1352.980000</v>
+        <v>1352.98</v>
       </c>
       <c r="AC17" s="1">
-        <v>-170.530000</v>
+        <v>-170.53</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>74243.176901</v>
+        <v>74243.176900999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>20.623105</v>
+        <v>20.623104999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1366.590000</v>
+        <v>1366.59</v>
       </c>
       <c r="AH17" s="1">
-        <v>-180.300000</v>
+        <v>-180.3</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>74253.397464</v>
+        <v>74253.397463999994</v>
       </c>
       <c r="AK17" s="1">
         <v>20.625944</v>
       </c>
       <c r="AL17" s="1">
-        <v>1388.090000</v>
+        <v>1388.09</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.978000</v>
+        <v>-209.97800000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>74264.215210</v>
+        <v>74264.215209999995</v>
       </c>
       <c r="AP17" s="1">
-        <v>20.628949</v>
+        <v>20.628948999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1410.480000</v>
+        <v>1410.48</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.394000</v>
+        <v>-253.39400000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>74275.633610</v>
+        <v>74275.633610000004</v>
       </c>
       <c r="AU17" s="1">
-        <v>20.632120</v>
+        <v>20.63212</v>
       </c>
       <c r="AV17" s="1">
-        <v>1435.740000</v>
+        <v>1435.74</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.712000</v>
+        <v>-312.71199999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>74286.630908</v>
+        <v>74286.630908000006</v>
       </c>
       <c r="AZ17" s="1">
         <v>20.635175</v>
       </c>
       <c r="BA17" s="1">
-        <v>1455.560000</v>
+        <v>1455.56</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.186000</v>
+        <v>-364.18599999999998</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>74297.617295</v>
+        <v>74297.617295000004</v>
       </c>
       <c r="BE17" s="1">
-        <v>20.638227</v>
+        <v>20.638227000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1542.430000</v>
+        <v>1542.43</v>
       </c>
       <c r="BG17" s="1">
-        <v>-609.288000</v>
+        <v>-609.28800000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>74309.308990</v>
+        <v>74309.308990000005</v>
       </c>
       <c r="BJ17" s="1">
         <v>20.641475</v>
       </c>
       <c r="BK17" s="1">
-        <v>1698.710000</v>
+        <v>1698.71</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1047.620000</v>
+        <v>-1047.6199999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>74321.086494</v>
+        <v>74321.086494000003</v>
       </c>
       <c r="BO17" s="1">
-        <v>20.644746</v>
+        <v>20.644746000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1995.630000</v>
+        <v>1995.63</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1803.990000</v>
+        <v>-1803.99</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>74332.337743</v>
+        <v>74332.337742999996</v>
       </c>
       <c r="BT17" s="1">
         <v>20.647872</v>
       </c>
       <c r="BU17" s="1">
-        <v>2384.760000</v>
+        <v>2384.7600000000002</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2675.510000</v>
+        <v>-2675.51</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>74344.081059</v>
+        <v>74344.081059000004</v>
       </c>
       <c r="BY17" s="1">
-        <v>20.651134</v>
+        <v>20.651133999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2866.830000</v>
+        <v>2866.83</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3618.480000</v>
+        <v>-3618.48</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>74356.538049</v>
+        <v>74356.538048999995</v>
       </c>
       <c r="CD17" s="1">
-        <v>20.654594</v>
+        <v>20.654593999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>4260.030000</v>
+        <v>4260.03</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5883.580000</v>
+        <v>-5883.58</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>74181.116508</v>
+        <v>74181.116508000006</v>
       </c>
       <c r="B18" s="1">
-        <v>20.605866</v>
+        <v>20.605865999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1247.120000</v>
+        <v>1247.1199999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-301.927000</v>
+        <v>-301.92700000000002</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>74191.467978</v>
+        <v>74191.467978000001</v>
       </c>
       <c r="G18" s="1">
-        <v>20.608741</v>
+        <v>20.608740999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>1272.490000</v>
+        <v>1272.49</v>
       </c>
       <c r="I18" s="1">
-        <v>-261.654000</v>
+        <v>-261.654</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>74202.308571</v>
+        <v>74202.308571000001</v>
       </c>
       <c r="L18" s="1">
-        <v>20.611752</v>
+        <v>20.611751999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1308.680000</v>
+        <v>1308.68</v>
       </c>
       <c r="N18" s="1">
-        <v>-202.798000</v>
+        <v>-202.798</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>74212.550926</v>
+        <v>74212.550925999996</v>
       </c>
       <c r="Q18" s="1">
         <v>20.614597</v>
       </c>
       <c r="R18" s="1">
-        <v>1320.900000</v>
+        <v>1320.9</v>
       </c>
       <c r="S18" s="1">
-        <v>-185.409000</v>
+        <v>-185.40899999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>74223.143488</v>
+        <v>74223.143488000002</v>
       </c>
       <c r="V18" s="1">
-        <v>20.617540</v>
+        <v>20.617540000000002</v>
       </c>
       <c r="W18" s="1">
-        <v>1334.790000</v>
+        <v>1334.79</v>
       </c>
       <c r="X18" s="1">
-        <v>-172.321000</v>
+        <v>-172.321</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>74233.367522</v>
       </c>
       <c r="AA18" s="1">
-        <v>20.620380</v>
+        <v>20.620380000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>1353.100000</v>
+        <v>1353.1</v>
       </c>
       <c r="AC18" s="1">
-        <v>-170.548000</v>
+        <v>-170.548</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>74243.863365</v>
+        <v>74243.863364999997</v>
       </c>
       <c r="AF18" s="1">
-        <v>20.623295</v>
+        <v>20.623294999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1366.630000</v>
+        <v>1366.63</v>
       </c>
       <c r="AH18" s="1">
-        <v>-180.214000</v>
+        <v>-180.214</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>74253.748138</v>
+        <v>74253.748137999995</v>
       </c>
       <c r="AK18" s="1">
-        <v>20.626041</v>
+        <v>20.626041000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1388.090000</v>
+        <v>1388.09</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.986000</v>
+        <v>-209.98599999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>74264.593658</v>
+        <v>74264.593657999998</v>
       </c>
       <c r="AP18" s="1">
         <v>20.629054</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1410.460000</v>
+        <v>1410.46</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.404000</v>
+        <v>-253.404</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>74276.013051</v>
+        <v>74276.013051000002</v>
       </c>
       <c r="AU18" s="1">
-        <v>20.632226</v>
+        <v>20.632225999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1435.760000</v>
+        <v>1435.76</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.708000</v>
+        <v>-312.70800000000003</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>74287.302028</v>
+        <v>74287.302028000006</v>
       </c>
       <c r="AZ18" s="1">
-        <v>20.635362</v>
+        <v>20.635362000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1455.560000</v>
+        <v>1455.56</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.200000</v>
+        <v>-364.2</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>74298.287388</v>
+        <v>74298.287387999997</v>
       </c>
       <c r="BE18" s="1">
         <v>20.638413</v>
       </c>
       <c r="BF18" s="1">
-        <v>1542.400000</v>
+        <v>1542.4</v>
       </c>
       <c r="BG18" s="1">
-        <v>-609.252000</v>
+        <v>-609.25199999999995</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>74309.781181</v>
+        <v>74309.781180999998</v>
       </c>
       <c r="BJ18" s="1">
-        <v>20.641606</v>
+        <v>20.641605999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1698.730000</v>
+        <v>1698.73</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1047.620000</v>
+        <v>-1047.6199999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>74321.474367</v>
+        <v>74321.474367000003</v>
       </c>
       <c r="BO18" s="1">
-        <v>20.644854</v>
+        <v>20.644853999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1995.780000</v>
+        <v>1995.78</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1803.850000</v>
+        <v>-1803.85</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>74332.773727</v>
+        <v>74332.773727000007</v>
       </c>
       <c r="BT18" s="1">
         <v>20.647993</v>
       </c>
       <c r="BU18" s="1">
-        <v>2385.280000</v>
+        <v>2385.2800000000002</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2675.660000</v>
+        <v>-2675.66</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>74344.528417</v>
+        <v>74344.528416999994</v>
       </c>
       <c r="BY18" s="1">
-        <v>20.651258</v>
+        <v>20.651257999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2867.150000</v>
+        <v>2867.15</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3618.360000</v>
+        <v>-3618.36</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>74357.067775</v>
+        <v>74357.067775000003</v>
       </c>
       <c r="CD18" s="1">
-        <v>20.654741</v>
+        <v>20.654741000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>4274.780000</v>
+        <v>4274.78</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5894.170000</v>
+        <v>-5894.17</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>74181.374887</v>
+        <v>74181.374886999998</v>
       </c>
       <c r="B19" s="1">
-        <v>20.605937</v>
+        <v>20.605937000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1247.220000</v>
+        <v>1247.22</v>
       </c>
       <c r="D19" s="1">
-        <v>-301.932000</v>
+        <v>-301.93200000000002</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>74191.809257</v>
+        <v>74191.809257000001</v>
       </c>
       <c r="G19" s="1">
         <v>20.608836</v>
       </c>
       <c r="H19" s="1">
-        <v>1272.050000</v>
+        <v>1272.05</v>
       </c>
       <c r="I19" s="1">
-        <v>-262.305000</v>
+        <v>-262.30500000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>74202.654748</v>
+        <v>74202.654748000001</v>
       </c>
       <c r="L19" s="1">
-        <v>20.611849</v>
+        <v>20.611848999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1308.500000</v>
+        <v>1308.5</v>
       </c>
       <c r="N19" s="1">
-        <v>-202.920000</v>
+        <v>-202.92</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>74212.898126</v>
@@ -4895,542 +5311,542 @@
         <v>20.614694</v>
       </c>
       <c r="R19" s="1">
-        <v>1321.010000</v>
+        <v>1321.01</v>
       </c>
       <c r="S19" s="1">
-        <v>-185.422000</v>
+        <v>-185.422</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>74223.829950</v>
+        <v>74223.829949999999</v>
       </c>
       <c r="V19" s="1">
-        <v>20.617731</v>
+        <v>20.617730999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1334.770000</v>
+        <v>1334.77</v>
       </c>
       <c r="X19" s="1">
-        <v>-172.407000</v>
+        <v>-172.40700000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>74234.064414</v>
+        <v>74234.064413999993</v>
       </c>
       <c r="AA19" s="1">
         <v>20.620573</v>
       </c>
       <c r="AB19" s="1">
-        <v>1353.000000</v>
+        <v>1353</v>
       </c>
       <c r="AC19" s="1">
-        <v>-170.534000</v>
+        <v>-170.53399999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>74244.205144</v>
+        <v>74244.205144000007</v>
       </c>
       <c r="AF19" s="1">
-        <v>20.623390</v>
+        <v>20.623390000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1366.570000</v>
+        <v>1366.57</v>
       </c>
       <c r="AH19" s="1">
-        <v>-180.309000</v>
+        <v>-180.309</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>74254.096824</v>
+        <v>74254.096823999993</v>
       </c>
       <c r="AK19" s="1">
-        <v>20.626138</v>
+        <v>20.626138000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1388.070000</v>
+        <v>1388.07</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.966000</v>
+        <v>-209.96600000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>74264.971113</v>
+        <v>74264.971113000007</v>
       </c>
       <c r="AP19" s="1">
-        <v>20.629159</v>
+        <v>20.629159000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1410.480000</v>
+        <v>1410.48</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.405000</v>
+        <v>-253.405</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>74276.694556</v>
+        <v>74276.694556000002</v>
       </c>
       <c r="AU19" s="1">
-        <v>20.632415</v>
+        <v>20.632415000000002</v>
       </c>
       <c r="AV19" s="1">
-        <v>1435.770000</v>
+        <v>1435.77</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.709000</v>
+        <v>-312.709</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>74287.707755</v>
+        <v>74287.707754999996</v>
       </c>
       <c r="AZ19" s="1">
-        <v>20.635474</v>
+        <v>20.635473999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1455.560000</v>
+        <v>1455.56</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.187000</v>
+        <v>-364.18700000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>74298.739777</v>
+        <v>74298.739776999995</v>
       </c>
       <c r="BE19" s="1">
-        <v>20.638539</v>
+        <v>20.638539000000002</v>
       </c>
       <c r="BF19" s="1">
-        <v>1542.410000</v>
+        <v>1542.41</v>
       </c>
       <c r="BG19" s="1">
-        <v>-609.276000</v>
+        <v>-609.27599999999995</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>74310.171533</v>
+        <v>74310.171533000001</v>
       </c>
       <c r="BJ19" s="1">
         <v>20.641714</v>
       </c>
       <c r="BK19" s="1">
-        <v>1698.700000</v>
+        <v>1698.7</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1047.540000</v>
+        <v>-1047.54</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>74321.898445</v>
+        <v>74321.898444999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>20.644972</v>
+        <v>20.644971999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1995.620000</v>
+        <v>1995.62</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1803.940000</v>
+        <v>-1803.94</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>74333.201278</v>
+        <v>74333.201277999993</v>
       </c>
       <c r="BT19" s="1">
         <v>20.648111</v>
       </c>
       <c r="BU19" s="1">
-        <v>2385.740000</v>
+        <v>2385.7399999999998</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2675.470000</v>
+        <v>-2675.47</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>74344.959935</v>
+        <v>74344.959935000006</v>
       </c>
       <c r="BY19" s="1">
-        <v>20.651378</v>
+        <v>20.651378000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2867.080000</v>
+        <v>2867.08</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3618.010000</v>
+        <v>-3618.01</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>74357.584110</v>
+        <v>74357.584109999996</v>
       </c>
       <c r="CD19" s="1">
-        <v>20.654884</v>
+        <v>20.654883999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>4281.910000</v>
+        <v>4281.91</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5878.560000</v>
+        <v>-5878.56</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>74181.712664</v>
+        <v>74181.712664000006</v>
       </c>
       <c r="B20" s="1">
-        <v>20.606031</v>
+        <v>20.606031000000002</v>
       </c>
       <c r="C20" s="1">
-        <v>1247.160000</v>
+        <v>1247.1600000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-301.642000</v>
+        <v>-301.642</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>74192.155929</v>
       </c>
       <c r="G20" s="1">
-        <v>20.608932</v>
+        <v>20.608931999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1270.850000</v>
+        <v>1270.8499999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-262.268000</v>
+        <v>-262.26799999999997</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>74203.345178</v>
+        <v>74203.345178000003</v>
       </c>
       <c r="L20" s="1">
-        <v>20.612040</v>
+        <v>20.61204</v>
       </c>
       <c r="M20" s="1">
-        <v>1308.550000</v>
+        <v>1308.55</v>
       </c>
       <c r="N20" s="1">
-        <v>-202.770000</v>
+        <v>-202.77</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>74213.598972</v>
+        <v>74213.598972000007</v>
       </c>
       <c r="Q20" s="1">
-        <v>20.614889</v>
+        <v>20.614889000000002</v>
       </c>
       <c r="R20" s="1">
-        <v>1321.030000</v>
+        <v>1321.03</v>
       </c>
       <c r="S20" s="1">
-        <v>-185.340000</v>
+        <v>-185.34</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>74224.171694</v>
+        <v>74224.171694000004</v>
       </c>
       <c r="V20" s="1">
         <v>20.617825</v>
       </c>
       <c r="W20" s="1">
-        <v>1334.790000</v>
+        <v>1334.79</v>
       </c>
       <c r="X20" s="1">
-        <v>-172.489000</v>
+        <v>-172.489</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>74234.409159</v>
+        <v>74234.409159000003</v>
       </c>
       <c r="AA20" s="1">
-        <v>20.620669</v>
+        <v>20.620668999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1353.100000</v>
+        <v>1353.1</v>
       </c>
       <c r="AC20" s="1">
-        <v>-170.449000</v>
+        <v>-170.44900000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>74244.549364</v>
+        <v>74244.549364000006</v>
       </c>
       <c r="AF20" s="1">
         <v>20.623486</v>
       </c>
       <c r="AG20" s="1">
-        <v>1366.580000</v>
+        <v>1366.58</v>
       </c>
       <c r="AH20" s="1">
-        <v>-180.296000</v>
+        <v>-180.29599999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>74254.754518</v>
+        <v>74254.754518000002</v>
       </c>
       <c r="AK20" s="1">
-        <v>20.626321</v>
+        <v>20.626321000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1388.090000</v>
+        <v>1388.09</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.976000</v>
+        <v>-209.976</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>74265.646664</v>
       </c>
       <c r="AP20" s="1">
-        <v>20.629346</v>
+        <v>20.629346000000002</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1410.490000</v>
+        <v>1410.49</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.374000</v>
+        <v>-253.374</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>74277.138009</v>
+        <v>74277.138009000002</v>
       </c>
       <c r="AU20" s="1">
         <v>20.632538</v>
       </c>
       <c r="AV20" s="1">
-        <v>1435.780000</v>
+        <v>1435.78</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.696000</v>
+        <v>-312.69600000000003</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>74288.096629</v>
+        <v>74288.096629000007</v>
       </c>
       <c r="AZ20" s="1">
-        <v>20.635582</v>
+        <v>20.635581999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1455.580000</v>
+        <v>1455.58</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.225000</v>
+        <v>-364.22500000000002</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>74299.103308</v>
+        <v>74299.103308000005</v>
       </c>
       <c r="BE20" s="1">
-        <v>20.638640</v>
+        <v>20.638639999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1542.420000</v>
+        <v>1542.42</v>
       </c>
       <c r="BG20" s="1">
-        <v>-609.251000</v>
+        <v>-609.25099999999998</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>74310.544526</v>
+        <v>74310.544525999998</v>
       </c>
       <c r="BJ20" s="1">
-        <v>20.641818</v>
+        <v>20.641818000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1698.760000</v>
+        <v>1698.76</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1047.650000</v>
+        <v>-1047.6500000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>74322.316572</v>
+        <v>74322.316571999996</v>
       </c>
       <c r="BO20" s="1">
-        <v>20.645088</v>
+        <v>20.645088000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1995.650000</v>
+        <v>1995.65</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1803.950000</v>
+        <v>-1803.95</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>74334.043485</v>
+        <v>74334.043485000002</v>
       </c>
       <c r="BT20" s="1">
-        <v>20.648345</v>
+        <v>20.648344999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>2385.960000</v>
+        <v>2385.96</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2675.130000</v>
+        <v>-2675.13</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>74345.382526</v>
+        <v>74345.382526000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>20.651495</v>
+        <v>20.651495000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2866.500000</v>
+        <v>2866.5</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3618.220000</v>
+        <v>-3618.22</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>74358.100445</v>
+        <v>74358.100445000004</v>
       </c>
       <c r="CD20" s="1">
-        <v>20.655028</v>
+        <v>20.655028000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>4267.510000</v>
+        <v>4267.51</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5873.700000</v>
+        <v>-5873.7</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>74182.054902</v>
+        <v>74182.054902000003</v>
       </c>
       <c r="B21" s="1">
         <v>20.606126</v>
       </c>
       <c r="C21" s="1">
-        <v>1247.450000</v>
+        <v>1247.45</v>
       </c>
       <c r="D21" s="1">
-        <v>-301.713000</v>
+        <v>-301.71300000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>74192.843383</v>
+        <v>74192.843382999999</v>
       </c>
       <c r="G21" s="1">
         <v>20.609123</v>
       </c>
       <c r="H21" s="1">
-        <v>1271.640000</v>
+        <v>1271.6400000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-261.700000</v>
+        <v>-261.7</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>74203.691385</v>
+        <v>74203.691384999998</v>
       </c>
       <c r="L21" s="1">
         <v>20.612136</v>
       </c>
       <c r="M21" s="1">
-        <v>1308.590000</v>
+        <v>1308.5899999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-202.736000</v>
+        <v>-202.73599999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>74213.944188</v>
+        <v>74213.944187999994</v>
       </c>
       <c r="Q21" s="1">
         <v>20.614984</v>
       </c>
       <c r="R21" s="1">
-        <v>1320.980000</v>
+        <v>1320.98</v>
       </c>
       <c r="S21" s="1">
-        <v>-185.435000</v>
+        <v>-185.435</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>74224.518430</v>
+        <v>74224.518429999996</v>
       </c>
       <c r="V21" s="1">
         <v>20.617922</v>
       </c>
       <c r="W21" s="1">
-        <v>1334.880000</v>
+        <v>1334.88</v>
       </c>
       <c r="X21" s="1">
-        <v>-172.325000</v>
+        <v>-172.32499999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>74235.081542</v>
@@ -5439,1465 +5855,1466 @@
         <v>20.620856</v>
       </c>
       <c r="AB21" s="1">
-        <v>1353.030000</v>
+        <v>1353.03</v>
       </c>
       <c r="AC21" s="1">
-        <v>-170.459000</v>
+        <v>-170.459</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>74245.225874</v>
+        <v>74245.225873999996</v>
       </c>
       <c r="AF21" s="1">
-        <v>20.623674</v>
+        <v>20.623674000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1366.550000</v>
+        <v>1366.55</v>
       </c>
       <c r="AH21" s="1">
-        <v>-180.266000</v>
+        <v>-180.26599999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>74255.140934</v>
+        <v>74255.140933999995</v>
       </c>
       <c r="AK21" s="1">
-        <v>20.626428</v>
+        <v>20.626428000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1388.090000</v>
+        <v>1388.09</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.967000</v>
+        <v>-209.96700000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>74266.059335</v>
+        <v>74266.059334999998</v>
       </c>
       <c r="AP21" s="1">
-        <v>20.629461</v>
+        <v>20.629460999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1410.500000</v>
+        <v>1410.5</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.405000</v>
+        <v>-253.405</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>74277.503032</v>
+        <v>74277.503031999993</v>
       </c>
       <c r="AU21" s="1">
-        <v>20.632640</v>
+        <v>20.632639999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1435.770000</v>
+        <v>1435.77</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.674000</v>
+        <v>-312.67399999999998</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>74288.455689</v>
+        <v>74288.455688999995</v>
       </c>
       <c r="AZ21" s="1">
-        <v>20.635682</v>
+        <v>20.635681999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1455.560000</v>
+        <v>1455.56</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.181000</v>
+        <v>-364.18099999999998</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>74299.460923</v>
+        <v>74299.460923000006</v>
       </c>
       <c r="BE21" s="1">
-        <v>20.638739</v>
+        <v>20.638739000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1542.440000</v>
+        <v>1542.44</v>
       </c>
       <c r="BG21" s="1">
-        <v>-609.264000</v>
+        <v>-609.26400000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>74310.968605</v>
+        <v>74310.968605000002</v>
       </c>
       <c r="BJ21" s="1">
-        <v>20.641936</v>
+        <v>20.641936000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1698.710000</v>
+        <v>1698.71</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1047.510000</v>
+        <v>-1047.51</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>74322.715356</v>
+        <v>74322.715356000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>20.645199</v>
+        <v>20.645199000000002</v>
       </c>
       <c r="BP21" s="1">
-        <v>1995.660000</v>
+        <v>1995.66</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1804.060000</v>
+        <v>-1804.06</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>74334.475996</v>
+        <v>74334.475995999994</v>
       </c>
       <c r="BT21" s="1">
-        <v>20.648466</v>
+        <v>20.648465999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>2386.210000</v>
+        <v>2386.21</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2675.010000</v>
+        <v>-2675.01</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>74345.805118</v>
+        <v>74345.805118000004</v>
       </c>
       <c r="BY21" s="1">
-        <v>20.651613</v>
+        <v>20.651613000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2867.090000</v>
+        <v>2867.09</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3617.780000</v>
+        <v>-3617.78</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>74358.617773</v>
+        <v>74358.617773000005</v>
       </c>
       <c r="CD21" s="1">
         <v>20.655172</v>
       </c>
       <c r="CE21" s="1">
-        <v>4264.500000</v>
+        <v>4264.5</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5887.470000</v>
+        <v>-5887.47</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>74182.741861</v>
+        <v>74182.741861000002</v>
       </c>
       <c r="B22" s="1">
-        <v>20.606317</v>
+        <v>20.606317000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1247.300000</v>
+        <v>1247.3</v>
       </c>
       <c r="D22" s="1">
-        <v>-301.480000</v>
+        <v>-301.48</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>74193.190087</v>
+        <v>74193.190086999995</v>
       </c>
       <c r="G22" s="1">
         <v>20.609219</v>
       </c>
       <c r="H22" s="1">
-        <v>1271.770000</v>
+        <v>1271.77</v>
       </c>
       <c r="I22" s="1">
-        <v>-262.161000</v>
+        <v>-262.161</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>74204.037625</v>
+        <v>74204.037624999997</v>
       </c>
       <c r="L22" s="1">
         <v>20.612233</v>
       </c>
       <c r="M22" s="1">
-        <v>1308.250000</v>
+        <v>1308.25</v>
       </c>
       <c r="N22" s="1">
-        <v>-202.848000</v>
+        <v>-202.84800000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>74214.295355</v>
+        <v>74214.295354999995</v>
       </c>
       <c r="Q22" s="1">
-        <v>20.615082</v>
+        <v>20.615082000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1320.940000</v>
+        <v>1320.94</v>
       </c>
       <c r="S22" s="1">
-        <v>-185.472000</v>
+        <v>-185.47200000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>74225.178605</v>
+        <v>74225.178604999994</v>
       </c>
       <c r="V22" s="1">
         <v>20.618105</v>
       </c>
       <c r="W22" s="1">
-        <v>1334.830000</v>
+        <v>1334.83</v>
       </c>
       <c r="X22" s="1">
-        <v>-172.373000</v>
+        <v>-172.37299999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>74235.456214</v>
+        <v>74235.456214000005</v>
       </c>
       <c r="AA22" s="1">
-        <v>20.620960</v>
+        <v>20.62096</v>
       </c>
       <c r="AB22" s="1">
-        <v>1352.960000</v>
+        <v>1352.96</v>
       </c>
       <c r="AC22" s="1">
-        <v>-170.547000</v>
+        <v>-170.547</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>74245.587458</v>
+        <v>74245.587457999995</v>
       </c>
       <c r="AF22" s="1">
-        <v>20.623774</v>
+        <v>20.623774000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1366.610000</v>
+        <v>1366.61</v>
       </c>
       <c r="AH22" s="1">
-        <v>-180.343000</v>
+        <v>-180.34299999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>74255.489095</v>
+        <v>74255.489094999997</v>
       </c>
       <c r="AK22" s="1">
-        <v>20.626525</v>
+        <v>20.626525000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>1388.090000</v>
+        <v>1388.09</v>
       </c>
       <c r="AM22" s="1">
-        <v>-210.010000</v>
+        <v>-210.01</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>74266.443239</v>
       </c>
       <c r="AP22" s="1">
-        <v>20.629568</v>
+        <v>20.629567999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1410.540000</v>
+        <v>1410.54</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.393000</v>
+        <v>-253.393</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>74277.867095</v>
+        <v>74277.867094999994</v>
       </c>
       <c r="AU22" s="1">
-        <v>20.632741</v>
+        <v>20.632740999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1435.760000</v>
+        <v>1435.76</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.690000</v>
+        <v>-312.69</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>74288.883242</v>
+        <v>74288.883241999996</v>
       </c>
       <c r="AZ22" s="1">
-        <v>20.635801</v>
+        <v>20.635801000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1455.520000</v>
+        <v>1455.52</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.176000</v>
+        <v>-364.17599999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>74299.933129</v>
+        <v>74299.933128999997</v>
       </c>
       <c r="BE22" s="1">
-        <v>20.638870</v>
+        <v>20.638870000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1542.380000</v>
+        <v>1542.38</v>
       </c>
       <c r="BG22" s="1">
-        <v>-609.300000</v>
+        <v>-609.29999999999995</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>74311.296956</v>
+        <v>74311.296956000006</v>
       </c>
       <c r="BJ22" s="1">
-        <v>20.642027</v>
+        <v>20.642026999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1698.650000</v>
+        <v>1698.65</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1047.580000</v>
+        <v>-1047.58</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>74323.112652</v>
+        <v>74323.112651999996</v>
       </c>
       <c r="BO22" s="1">
-        <v>20.645309</v>
+        <v>20.645309000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1995.580000</v>
+        <v>1995.58</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1804.000000</v>
+        <v>-1804</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>74334.905546</v>
+        <v>74334.905545999995</v>
       </c>
       <c r="BT22" s="1">
-        <v>20.648585</v>
+        <v>20.648585000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>2386.430000</v>
+        <v>2386.4299999999998</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2674.250000</v>
+        <v>-2674.25</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>74346.258462</v>
+        <v>74346.258461999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>20.651738</v>
+        <v>20.651738000000002</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2866.730000</v>
+        <v>2866.73</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3618.030000</v>
+        <v>-3618.03</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>74359.139068</v>
+        <v>74359.139068000004</v>
       </c>
       <c r="CD22" s="1">
-        <v>20.655316</v>
+        <v>20.655315999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>4278.210000</v>
+        <v>4278.21</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5887.760000</v>
+        <v>-5887.76</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>74183.083108</v>
+        <v>74183.083108000006</v>
       </c>
       <c r="B23" s="1">
-        <v>20.606412</v>
+        <v>20.606411999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1247.320000</v>
+        <v>1247.32</v>
       </c>
       <c r="D23" s="1">
-        <v>-301.666000</v>
+        <v>-301.666</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>74193.539308</v>
+        <v>74193.539308000007</v>
       </c>
       <c r="G23" s="1">
         <v>20.609316</v>
       </c>
       <c r="H23" s="1">
-        <v>1272.480000</v>
+        <v>1272.48</v>
       </c>
       <c r="I23" s="1">
-        <v>-262.366000</v>
+        <v>-262.36599999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>74204.699289</v>
+        <v>74204.699288999996</v>
       </c>
       <c r="L23" s="1">
         <v>20.612416</v>
       </c>
       <c r="M23" s="1">
-        <v>1308.690000</v>
+        <v>1308.69</v>
       </c>
       <c r="N23" s="1">
-        <v>-202.762000</v>
+        <v>-202.762</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>74214.957516</v>
+        <v>74214.957515999995</v>
       </c>
       <c r="Q23" s="1">
-        <v>20.615266</v>
+        <v>20.615265999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>1320.990000</v>
+        <v>1320.99</v>
       </c>
       <c r="S23" s="1">
-        <v>-185.423000</v>
+        <v>-185.423</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>74225.553549</v>
+        <v>74225.553549000004</v>
       </c>
       <c r="V23" s="1">
         <v>20.618209</v>
       </c>
       <c r="W23" s="1">
-        <v>1334.760000</v>
+        <v>1334.76</v>
       </c>
       <c r="X23" s="1">
-        <v>-172.411000</v>
+        <v>-172.411</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>74235.804863</v>
+        <v>74235.804862999998</v>
       </c>
       <c r="AA23" s="1">
         <v>20.621057</v>
       </c>
       <c r="AB23" s="1">
-        <v>1353.020000</v>
+        <v>1353.02</v>
       </c>
       <c r="AC23" s="1">
-        <v>-170.552000</v>
+        <v>-170.55199999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>74245.936642</v>
+        <v>74245.936642000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>20.623871</v>
+        <v>20.623871000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1366.560000</v>
+        <v>1366.56</v>
       </c>
       <c r="AH23" s="1">
-        <v>-180.243000</v>
+        <v>-180.24299999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>74255.843733</v>
+        <v>74255.843733000002</v>
       </c>
       <c r="AK23" s="1">
-        <v>20.626623</v>
+        <v>20.626622999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>1388.070000</v>
+        <v>1388.07</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.965000</v>
+        <v>-209.965</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>74266.802343</v>
+        <v>74266.802343000003</v>
       </c>
       <c r="AP23" s="1">
-        <v>20.629667</v>
+        <v>20.629667000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1410.510000</v>
+        <v>1410.51</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.387000</v>
+        <v>-253.387</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>74278.304605</v>
+        <v>74278.304604999998</v>
       </c>
       <c r="AU23" s="1">
-        <v>20.632862</v>
+        <v>20.632861999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1435.760000</v>
+        <v>1435.76</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.679000</v>
+        <v>-312.67899999999997</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>74289.172904</v>
+        <v>74289.172904000006</v>
       </c>
       <c r="AZ23" s="1">
-        <v>20.635881</v>
+        <v>20.635881000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1455.560000</v>
+        <v>1455.56</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.181000</v>
+        <v>-364.18099999999998</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>74300.178666</v>
+        <v>74300.178666000007</v>
       </c>
       <c r="BE23" s="1">
-        <v>20.638939</v>
+        <v>20.638939000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1542.410000</v>
+        <v>1542.41</v>
       </c>
       <c r="BG23" s="1">
-        <v>-609.252000</v>
+        <v>-609.25199999999995</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>74311.679371</v>
+        <v>74311.679371000006</v>
       </c>
       <c r="BJ23" s="1">
-        <v>20.642133</v>
+        <v>20.642133000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1698.760000</v>
+        <v>1698.76</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1047.550000</v>
+        <v>-1047.55</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>74323.532300</v>
+        <v>74323.532300000006</v>
       </c>
       <c r="BO23" s="1">
         <v>20.645426</v>
       </c>
       <c r="BP23" s="1">
-        <v>1995.640000</v>
+        <v>1995.64</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1804.010000</v>
+        <v>-1804.01</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>74335.747275</v>
+        <v>74335.747275000002</v>
       </c>
       <c r="BT23" s="1">
         <v>20.648819</v>
       </c>
       <c r="BU23" s="1">
-        <v>2386.670000</v>
+        <v>2386.67</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2673.940000</v>
+        <v>-2673.94</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>74346.694482</v>
+        <v>74346.694482000006</v>
       </c>
       <c r="BY23" s="1">
-        <v>20.651860</v>
+        <v>20.651859999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2866.890000</v>
+        <v>2866.89</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3617.990000</v>
+        <v>-3617.99</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>74359.655901</v>
+        <v>74359.655901000006</v>
       </c>
       <c r="CD23" s="1">
-        <v>20.655460</v>
+        <v>20.655460000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>4274.230000</v>
+        <v>4274.2299999999996</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5893.750000</v>
+        <v>-5893.75</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>74183.426341</v>
+        <v>74183.426340999999</v>
       </c>
       <c r="B24" s="1">
-        <v>20.606507</v>
+        <v>20.606507000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1247.580000</v>
+        <v>1247.58</v>
       </c>
       <c r="D24" s="1">
-        <v>-301.790000</v>
+        <v>-301.79000000000002</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>74194.197959</v>
+        <v>74194.197958999997</v>
       </c>
       <c r="G24" s="1">
         <v>20.609499</v>
       </c>
       <c r="H24" s="1">
-        <v>1272.040000</v>
+        <v>1272.04</v>
       </c>
       <c r="I24" s="1">
-        <v>-262.397000</v>
+        <v>-262.39699999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>74205.073736</v>
+        <v>74205.073736000006</v>
       </c>
       <c r="L24" s="1">
-        <v>20.612520</v>
+        <v>20.61252</v>
       </c>
       <c r="M24" s="1">
-        <v>1308.550000</v>
+        <v>1308.55</v>
       </c>
       <c r="N24" s="1">
-        <v>-202.870000</v>
+        <v>-202.87</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>74215.336000</v>
+        <v>74215.335999999996</v>
       </c>
       <c r="Q24" s="1">
         <v>20.615371</v>
       </c>
       <c r="R24" s="1">
-        <v>1321.050000</v>
+        <v>1321.05</v>
       </c>
       <c r="S24" s="1">
-        <v>-185.379000</v>
+        <v>-185.37899999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>74225.904716</v>
+        <v>74225.904716000005</v>
       </c>
       <c r="V24" s="1">
-        <v>20.618307</v>
+        <v>20.618307000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1334.810000</v>
+        <v>1334.81</v>
       </c>
       <c r="X24" s="1">
-        <v>-172.357000</v>
+        <v>-172.357</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>74236.156031</v>
+        <v>74236.156031000006</v>
       </c>
       <c r="AA24" s="1">
-        <v>20.621154</v>
+        <v>20.621154000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1353.040000</v>
+        <v>1353.04</v>
       </c>
       <c r="AC24" s="1">
-        <v>-170.573000</v>
+        <v>-170.57300000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>74246.278418</v>
+        <v>74246.278418000002</v>
       </c>
       <c r="AF24" s="1">
-        <v>20.623966</v>
+        <v>20.623965999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1366.570000</v>
+        <v>1366.57</v>
       </c>
       <c r="AH24" s="1">
-        <v>-180.280000</v>
+        <v>-180.28</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>74256.269796</v>
+        <v>74256.269795999993</v>
       </c>
       <c r="AK24" s="1">
         <v>20.626742</v>
       </c>
       <c r="AL24" s="1">
-        <v>1388.100000</v>
+        <v>1388.1</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.986000</v>
+        <v>-209.98599999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>74267.524023</v>
+        <v>74267.524023000005</v>
       </c>
       <c r="AP24" s="1">
-        <v>20.629868</v>
+        <v>20.629867999999998</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1410.490000</v>
+        <v>1410.49</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.395000</v>
+        <v>-253.39500000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>74278.595222</v>
+        <v>74278.595222000004</v>
       </c>
       <c r="AU24" s="1">
-        <v>20.632943</v>
+        <v>20.632943000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1435.740000</v>
+        <v>1435.74</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.690000</v>
+        <v>-312.69</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>74289.529530</v>
+        <v>74289.52953</v>
       </c>
       <c r="AZ24" s="1">
-        <v>20.635980</v>
+        <v>20.63598</v>
       </c>
       <c r="BA24" s="1">
-        <v>1455.570000</v>
+        <v>1455.57</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.178000</v>
+        <v>-364.178</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>74300.543231</v>
+        <v>74300.543231000003</v>
       </c>
       <c r="BE24" s="1">
-        <v>20.639040</v>
+        <v>20.639040000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1542.400000</v>
+        <v>1542.4</v>
       </c>
       <c r="BG24" s="1">
-        <v>-609.243000</v>
+        <v>-609.24300000000005</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>74312.068730</v>
+        <v>74312.068729999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>20.642241</v>
+        <v>20.642240999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1698.800000</v>
+        <v>1698.8</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1047.540000</v>
+        <v>-1047.54</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>74324.351162</v>
+        <v>74324.351162000006</v>
       </c>
       <c r="BO24" s="1">
-        <v>20.645653</v>
+        <v>20.645652999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1995.640000</v>
+        <v>1995.64</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1803.890000</v>
+        <v>-1803.89</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>74336.179290</v>
+        <v>74336.17929</v>
       </c>
       <c r="BT24" s="1">
-        <v>20.648939</v>
+        <v>20.648938999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>2386.540000</v>
+        <v>2386.54</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2673.580000</v>
+        <v>-2673.58</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>74347.124012</v>
       </c>
       <c r="BY24" s="1">
-        <v>20.651979</v>
+        <v>20.651979000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2866.440000</v>
+        <v>2866.44</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3618.190000</v>
+        <v>-3618.19</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>74360.207450</v>
+        <v>74360.207450000002</v>
       </c>
       <c r="CD24" s="1">
-        <v>20.655613</v>
+        <v>20.655612999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>4264.750000</v>
+        <v>4264.75</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5887.950000</v>
+        <v>-5887.95</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>74184.085524</v>
+        <v>74184.085523999995</v>
       </c>
       <c r="B25" s="1">
-        <v>20.606690</v>
+        <v>20.60669</v>
       </c>
       <c r="C25" s="1">
-        <v>1247.240000</v>
+        <v>1247.24</v>
       </c>
       <c r="D25" s="1">
-        <v>-301.707000</v>
+        <v>-301.70699999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>74194.570485</v>
+        <v>74194.570485000004</v>
       </c>
       <c r="G25" s="1">
         <v>20.609603</v>
       </c>
       <c r="H25" s="1">
-        <v>1271.560000</v>
+        <v>1271.56</v>
       </c>
       <c r="I25" s="1">
-        <v>-262.788000</v>
+        <v>-262.78800000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>74205.420935</v>
+        <v>74205.420935000002</v>
       </c>
       <c r="L25" s="1">
         <v>20.612617</v>
       </c>
       <c r="M25" s="1">
-        <v>1308.460000</v>
+        <v>1308.46</v>
       </c>
       <c r="N25" s="1">
-        <v>-202.792000</v>
+        <v>-202.792</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>74215.687129</v>
+        <v>74215.687128999998</v>
       </c>
       <c r="Q25" s="1">
-        <v>20.615469</v>
+        <v>20.615469000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1321.030000</v>
+        <v>1321.03</v>
       </c>
       <c r="S25" s="1">
-        <v>-185.348000</v>
+        <v>-185.34800000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>74226.246493</v>
+        <v>74226.246492999999</v>
       </c>
       <c r="V25" s="1">
         <v>20.618402</v>
       </c>
       <c r="W25" s="1">
-        <v>1334.940000</v>
+        <v>1334.94</v>
       </c>
       <c r="X25" s="1">
-        <v>-172.353000</v>
+        <v>-172.35300000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>74236.585566</v>
+        <v>74236.585565999994</v>
       </c>
       <c r="AA25" s="1">
         <v>20.621274</v>
       </c>
       <c r="AB25" s="1">
-        <v>1353.060000</v>
+        <v>1353.06</v>
       </c>
       <c r="AC25" s="1">
-        <v>-170.525000</v>
+        <v>-170.52500000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>74246.710896</v>
+        <v>74246.710896000004</v>
       </c>
       <c r="AF25" s="1">
-        <v>20.624086</v>
+        <v>20.624085999999998</v>
       </c>
       <c r="AG25" s="1">
-        <v>1366.600000</v>
+        <v>1366.6</v>
       </c>
       <c r="AH25" s="1">
-        <v>-180.312000</v>
+        <v>-180.31200000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>74256.544084</v>
+        <v>74256.544083999994</v>
       </c>
       <c r="AK25" s="1">
         <v>20.626818</v>
       </c>
       <c r="AL25" s="1">
-        <v>1388.060000</v>
+        <v>1388.06</v>
       </c>
       <c r="AM25" s="1">
-        <v>-210.000000</v>
+        <v>-210</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>74267.904950</v>
+        <v>74267.904949999996</v>
       </c>
       <c r="AP25" s="1">
-        <v>20.629974</v>
+        <v>20.629974000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1410.500000</v>
+        <v>1410.5</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.381000</v>
+        <v>-253.381</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>74278.960775</v>
       </c>
       <c r="AU25" s="1">
-        <v>20.633045</v>
+        <v>20.633044999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1435.750000</v>
+        <v>1435.75</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.701000</v>
+        <v>-312.70100000000002</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>74289.889127</v>
+        <v>74289.889127000002</v>
       </c>
       <c r="AZ25" s="1">
-        <v>20.636080</v>
+        <v>20.63608</v>
       </c>
       <c r="BA25" s="1">
-        <v>1455.560000</v>
+        <v>1455.56</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.204000</v>
+        <v>-364.20400000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>74301.265902</v>
+        <v>74301.265901999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>20.639241</v>
+        <v>20.639240999999998</v>
       </c>
       <c r="BF25" s="1">
-        <v>1542.370000</v>
+        <v>1542.37</v>
       </c>
       <c r="BG25" s="1">
-        <v>-609.255000</v>
+        <v>-609.255</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>74312.818681</v>
+        <v>74312.818681000004</v>
       </c>
       <c r="BJ25" s="1">
-        <v>20.642450</v>
+        <v>20.64245</v>
       </c>
       <c r="BK25" s="1">
-        <v>1698.740000</v>
+        <v>1698.74</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1047.540000</v>
+        <v>-1047.54</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>74324.769786</v>
+        <v>74324.769786000004</v>
       </c>
       <c r="BO25" s="1">
-        <v>20.645769</v>
+        <v>20.645769000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1995.590000</v>
+        <v>1995.59</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1803.870000</v>
+        <v>-1803.87</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>74336.607802</v>
+        <v>74336.607801999999</v>
       </c>
       <c r="BT25" s="1">
         <v>20.649058</v>
       </c>
       <c r="BU25" s="1">
-        <v>2386.930000</v>
+        <v>2386.9299999999998</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2673.370000</v>
+        <v>-2673.37</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>74347.547106</v>
+        <v>74347.547105999998</v>
       </c>
       <c r="BY25" s="1">
         <v>20.652096</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2866.780000</v>
+        <v>2866.78</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3618.730000</v>
+        <v>-3618.73</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>74361.051641</v>
+        <v>74361.051640999998</v>
       </c>
       <c r="CD25" s="1">
-        <v>20.655848</v>
+        <v>20.655847999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>4278.650000</v>
+        <v>4278.6499999999996</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5887.320000</v>
+        <v>-5887.32</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>74184.436195</v>
+        <v>74184.436195000002</v>
       </c>
       <c r="B26" s="1">
-        <v>20.606788</v>
+        <v>20.606788000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>1247.610000</v>
+        <v>1247.6099999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-301.466000</v>
+        <v>-301.46600000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>74194.920133</v>
+        <v>74194.920133000007</v>
       </c>
       <c r="G26" s="1">
-        <v>20.609700</v>
+        <v>20.6097</v>
       </c>
       <c r="H26" s="1">
-        <v>1271.860000</v>
+        <v>1271.8599999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-261.964000</v>
+        <v>-261.964</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>74205.763681</v>
+        <v>74205.763680999997</v>
       </c>
       <c r="L26" s="1">
-        <v>20.612712</v>
+        <v>20.612711999999998</v>
       </c>
       <c r="M26" s="1">
-        <v>1308.360000</v>
+        <v>1308.3599999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-202.755000</v>
+        <v>-202.755</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>74216.036842</v>
+        <v>74216.036842000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>20.615566</v>
+        <v>20.615566000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1321.000000</v>
+        <v>1321</v>
       </c>
       <c r="S26" s="1">
-        <v>-185.432000</v>
+        <v>-185.43199999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>74226.668555</v>
+        <v>74226.668554999997</v>
       </c>
       <c r="V26" s="1">
-        <v>20.618519</v>
+        <v>20.618518999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1334.870000</v>
+        <v>1334.87</v>
       </c>
       <c r="X26" s="1">
-        <v>-172.436000</v>
+        <v>-172.43600000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>74236.864686</v>
+        <v>74236.864686000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>20.621351</v>
+        <v>20.621351000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1353.110000</v>
+        <v>1353.11</v>
       </c>
       <c r="AC26" s="1">
-        <v>-170.606000</v>
+        <v>-170.60599999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>74246.977746</v>
+        <v>74246.977746000004</v>
       </c>
       <c r="AF26" s="1">
-        <v>20.624160</v>
+        <v>20.62416</v>
       </c>
       <c r="AG26" s="1">
-        <v>1366.590000</v>
+        <v>1366.59</v>
       </c>
       <c r="AH26" s="1">
-        <v>-180.252000</v>
+        <v>-180.25200000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>74256.893267</v>
+        <v>74256.893267000007</v>
       </c>
       <c r="AK26" s="1">
         <v>20.626915</v>
       </c>
       <c r="AL26" s="1">
-        <v>1388.060000</v>
+        <v>1388.06</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.990000</v>
+        <v>-209.99</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>74268.265078</v>
+        <v>74268.265077999997</v>
       </c>
       <c r="AP26" s="1">
         <v>20.630074</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1410.490000</v>
+        <v>1410.49</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.366000</v>
+        <v>-253.36600000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>74279.327816</v>
+        <v>74279.327816000005</v>
       </c>
       <c r="AU26" s="1">
-        <v>20.633147</v>
+        <v>20.633147000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1435.770000</v>
+        <v>1435.77</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.704000</v>
+        <v>-312.70400000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>74290.612295</v>
+        <v>74290.612294999999</v>
       </c>
       <c r="AZ26" s="1">
         <v>20.636281</v>
       </c>
       <c r="BA26" s="1">
-        <v>1455.610000</v>
+        <v>1455.61</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.165000</v>
+        <v>-364.16500000000002</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>74301.652248</v>
+        <v>74301.652247999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>20.639348</v>
+        <v>20.639347999999998</v>
       </c>
       <c r="BF26" s="1">
-        <v>1542.370000</v>
+        <v>1542.37</v>
       </c>
       <c r="BG26" s="1">
-        <v>-609.273000</v>
+        <v>-609.27300000000002</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>74313.221929</v>
+        <v>74313.221929000007</v>
       </c>
       <c r="BJ26" s="1">
-        <v>20.642562</v>
+        <v>20.642562000000002</v>
       </c>
       <c r="BK26" s="1">
-        <v>1698.710000</v>
+        <v>1698.71</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1047.500000</v>
+        <v>-1047.5</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>74325.164105</v>
+        <v>74325.164105000003</v>
       </c>
       <c r="BO26" s="1">
-        <v>20.645879</v>
+        <v>20.645879000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1995.650000</v>
+        <v>1995.65</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1803.810000</v>
+        <v>-1803.81</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>74337.335929</v>
+        <v>74337.335928999993</v>
       </c>
       <c r="BT26" s="1">
-        <v>20.649260</v>
+        <v>20.649260000000002</v>
       </c>
       <c r="BU26" s="1">
-        <v>2386.430000</v>
+        <v>2386.4299999999998</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2673.260000</v>
+        <v>-2673.26</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>74348.277674</v>
+        <v>74348.277673999997</v>
       </c>
       <c r="BY26" s="1">
-        <v>20.652299</v>
+        <v>20.652298999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2866.560000</v>
+        <v>2866.56</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3618.820000</v>
+        <v>-3618.82</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>74361.293231</v>
+        <v>74361.293231000003</v>
       </c>
       <c r="CD26" s="1">
         <v>20.655915</v>
       </c>
       <c r="CE26" s="1">
-        <v>4274.390000</v>
+        <v>4274.3900000000003</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5871.560000</v>
+        <v>-5871.56</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>